--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_NOx.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_NOx.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_NOx</t>
+  </si>
+  <si>
+    <t>02_taxi_NOx</t>
+  </si>
+  <si>
+    <t>03_van_NOx</t>
+  </si>
+  <si>
+    <t>04_bus_NOx</t>
+  </si>
+  <si>
+    <t>05_LightTruck_NOx</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_NOx</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_NOx</t>
+  </si>
+  <si>
+    <t>Total_NOx (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1292 +397,1408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_NOx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_NOx</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_NOx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_NOx</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_NOx</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_NOx</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_NOx (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1488.853972006515</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.348685040572317</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.3585147323091735</v>
+      </c>
+      <c r="D2">
         <v>182.2550683727125</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>31.30154564828328</v>
+      </c>
+      <c r="F2">
         <v>216.8042383844642</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>102.043667089781</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>10.81305830880082</v>
       </c>
-      <c r="H2" t="n">
-        <v>2001.118689202846</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>2032.430064542866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1403.072319314748</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.4444025026902079</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.4569305411783583</v>
+      </c>
+      <c r="D3">
         <v>223.9133697150469</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>11.96823804199067</v>
+      </c>
+      <c r="F3">
         <v>238.8521270337318</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>90.49155383433408</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>27.63337123360212</v>
       </c>
-      <c r="H3" t="n">
-        <v>1984.407143634153</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>1996.387909714632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1311.374690575275</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.348685040572317</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.3585147323091735</v>
+      </c>
+      <c r="D4">
         <v>111.9566848575234</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>11.04760434645293</v>
+      </c>
+      <c r="F4">
         <v>189.8568189242483</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>86.64084941585185</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>24.02901846400184</v>
       </c>
-      <c r="H4" t="n">
-        <v>1724.206747277472</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>1735.264181315662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1521.39184026891</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.3760328868917143</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.3866335348432262</v>
+      </c>
+      <c r="D5">
         <v>151.0113423659619</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>19.33330760629261</v>
+      </c>
+      <c r="F5">
         <v>229.053065411835</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>71.23803174192261</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>20.42466569440157</v>
       </c>
-      <c r="H5" t="n">
-        <v>1993.494978369922</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>2012.838886624166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1414.904271410166</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.3897068100514131</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.4006929361102527</v>
+      </c>
+      <c r="D6">
         <v>184.8587122066084</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>16.5714065196794</v>
+      </c>
+      <c r="F6">
         <v>244.9765405474172</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>73.16338395116375</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>18.02176384800138</v>
       </c>
-      <c r="H6" t="n">
-        <v>1936.314378773408</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>1952.896771419147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1517.447856237104</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.4033807332111118</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.4147523373772791</v>
+      </c>
+      <c r="D7">
         <v>213.4987943794633</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>16.5714065196794</v>
+      </c>
+      <c r="F7">
         <v>257.225367574788</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>69.31267953268144</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>15.6188620016012</v>
       </c>
-      <c r="H7" t="n">
-        <v>2073.506940458849</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>2090.089718582695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1550.97172050745</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.369195925311865</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.3796038342097129</v>
+      </c>
+      <c r="D8">
         <v>208.2915067116716</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>18.41267391075487</v>
+      </c>
+      <c r="F8">
         <v>240.0770097364688</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>59.68591848647567</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>8.410156462400646</v>
       </c>
-      <c r="H8" t="n">
-        <v>2067.805507829778</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>2086.228589649431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1734.366977986398</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.3418480789924676</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.3514850316756602</v>
+      </c>
+      <c r="D9">
         <v>182.2550683727125</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>29.46027825720779</v>
+      </c>
+      <c r="F9">
         <v>213.129590276253</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>63.53662290495799</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>13.21596015520101</v>
       </c>
-      <c r="H9" t="n">
-        <v>2206.846067774514</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>2236.315982984405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1883.252375187049</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.4170546563708104</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.4288117386443055</v>
+      </c>
+      <c r="D10">
         <v>166.6332053693371</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>55.23802173226461</v>
+      </c>
+      <c r="F10">
         <v>204.5554113570934</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>48.1338052310288</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>7.208705539200553</v>
       </c>
-      <c r="H10" t="n">
-        <v>2310.20055734008</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>2365.450336154618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2001.571896141209</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.2598045400342753</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.2671286240735017</v>
+      </c>
+      <c r="D11">
         <v>143.2004108642741</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>58.92055651441558</v>
+      </c>
+      <c r="F11">
         <v>113.914091354549</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>9.626761046205761</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>8.410156462400646</v>
       </c>
-      <c r="H11" t="n">
-        <v>2276.983120408673</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>2335.911001007128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1458.288095760024</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.2187827705551793</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.2249504202724225</v>
+      </c>
+      <c r="D12">
         <v>145.80405469817</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>35.90471412597201</v>
+      </c>
+      <c r="F12">
         <v>101.6652643271781</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>21.17887430165266</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>2.402901846400185</v>
       </c>
-      <c r="H12" t="n">
-        <v>1729.55797370398</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>1765.468855479669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1271.934850257222</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.1504131547566857</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.1546534139372905</v>
+      </c>
+      <c r="D13">
         <v>85.92024651856448</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>47.87295216796267</v>
+      </c>
+      <c r="F13">
         <v>63.69390054232848</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>34.65633976634072</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>6.00725461600046</v>
       </c>
-      <c r="H13" t="n">
-        <v>1462.363004855213</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>1510.240197282356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1007.687920126264</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.1299022700171377</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.1335643120367509</v>
+      </c>
+      <c r="D14">
         <v>88.52389035246036</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>30.38091195274555</v>
+      </c>
+      <c r="F14">
         <v>42.87089459579803</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>26.95493092937611</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>6.00725461600046</v>
       </c>
-      <c r="H14" t="n">
-        <v>1172.174792889916</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>1202.559366884681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>711.8891177408633</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.1845979626559325</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.1898019171048565</v>
+      </c>
+      <c r="D15">
         <v>57.28016434570965</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>17.49204021521713</v>
+      </c>
+      <c r="F15">
         <v>36.74648108211256</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>23.10422651089381</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>829.2045876422353</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>846.7018318119013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>437.7822275303929</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.1504131547566857</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.1546534139372905</v>
+      </c>
+      <c r="D16">
         <v>39.0546575084384</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>9.206336955377436</v>
+      </c>
+      <c r="F16">
         <v>28.17230216295297</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>21.17887430165266</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>526.3384746581936</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>535.5490518727516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>340.1686227432104</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.2119458089753299</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.2179207196389093</v>
+      </c>
+      <c r="D17">
         <v>13.01821916947947</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>1.841267391075487</v>
+      </c>
+      <c r="F17">
         <v>15.92347513558212</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>25.02957872013495</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>394.3518415773823</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>396.1990838791214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>221.8491017890503</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.1914349242357819</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.1968316177383697</v>
+      </c>
+      <c r="D18">
         <v>23.43279450506304</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>3.682534782150974</v>
+      </c>
+      <c r="F18">
         <v>29.39718486569006</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>15.40281767392921</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>290.2733337579684</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>293.961265233622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>132.1234650654789</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.1709240394962338</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.1757425158378301</v>
+      </c>
+      <c r="D19">
         <v>31.24372600675072</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.9206336955377434</v>
+      </c>
+      <c r="F19">
         <v>13.47370973010795</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>32.73098755709957</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>1.201450923200093</v>
       </c>
-      <c r="H19" t="n">
-        <v>210.9442633221335</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>211.8697154940128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>159.7313532881162</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.1299022700171377</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.1335643120367509</v>
+      </c>
+      <c r="D20">
         <v>39.0546575084384</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>2.761901086613232</v>
+      </c>
+      <c r="F20">
         <v>26.94741946021589</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>26.95493092937611</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>1.201450923200093</v>
       </c>
-      <c r="H20" t="n">
-        <v>254.0197143793638</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>256.7852775079967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>274.1068902104711</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.06153265421864416</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.06326730570161883</v>
+      </c>
+      <c r="D21">
         <v>54.67652051181376</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>6.444435868764205</v>
+      </c>
+      <c r="F21">
         <v>47.77042540674636</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>44.28310081254645</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>420.8984695957963</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>427.3446401160436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>551.171768444796</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.05469569263879482</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.05623760506810562</v>
+      </c>
+      <c r="D22">
         <v>80.71295885077265</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>26.69837717059456</v>
+      </c>
+      <c r="F22">
         <v>134.7370973010795</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>80.86479278812831</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>2.402901846400185</v>
       </c>
-      <c r="H22" t="n">
-        <v>849.9442149238155</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>876.6441340068393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1047.127760444318</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.1230653084372883</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.1265346114032377</v>
+      </c>
+      <c r="D23">
         <v>137.9931231964823</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>77.33323042517046</v>
+      </c>
+      <c r="F23">
         <v>198.430997843408</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>113.5957803452279</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>14.41741107840111</v>
       </c>
-      <c r="H23" t="n">
-        <v>1511.688138216274</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>1589.024837944411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1506.601900149639</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.1845979626559325</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.1898019171048565</v>
+      </c>
+      <c r="D24">
         <v>145.80405469817</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>83.77766629393469</v>
+      </c>
+      <c r="F24">
         <v>209.4549421680418</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>144.4014156930863</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>21.62611661760165</v>
       </c>
-      <c r="H24" t="n">
-        <v>2028.073027289195</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>2111.855897537579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1637.739369207167</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.3145002326730701</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.3233662291416074</v>
+      </c>
+      <c r="D25">
         <v>182.2550683727125</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>39.58724890812299</v>
+      </c>
+      <c r="F25">
         <v>213.129590276253</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>98.19296267129872</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>9.61160738560074</v>
       </c>
-      <c r="H25" t="n">
-        <v>2141.243098145705</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>2180.839213050297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1535.195784380229</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.3350111174126182</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.344455331042147</v>
+      </c>
+      <c r="D26">
         <v>177.0477807049207</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>32.22217934382103</v>
+      </c>
+      <c r="F26">
         <v>225.3784173036238</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>107.8197237175044</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>9.61160738560074</v>
       </c>
-      <c r="H26" t="n">
-        <v>2055.388324609291</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>2087.619948166741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1446.456143664608</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.4307285795305091</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.4428711399113318</v>
+      </c>
+      <c r="D27">
         <v>216.1024382133591</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>12.88887173752841</v>
+      </c>
+      <c r="F27">
         <v>247.4263059528914</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>94.34225825281639</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>25.23046938720193</v>
       </c>
-      <c r="H27" t="n">
-        <v>2029.988344050408</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>2042.889358348317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1466.176063823635</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.3965437716312623</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.4077226367437658</v>
+      </c>
+      <c r="D28">
         <v>169.2368492032331</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>12.88887173752841</v>
+      </c>
+      <c r="F28">
         <v>221.7037691954126</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>100.1183148805398</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>15.6188620016012</v>
       </c>
-      <c r="H28" t="n">
-        <v>1973.250402876053</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>1986.150453478694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1530.265804340472</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.4238916179506598</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.4358414392778186</v>
+      </c>
+      <c r="D29">
         <v>143.2004108642741</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>13.80950543306615</v>
+      </c>
+      <c r="F29">
         <v>221.7037691954126</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>80.86479278812831</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>9.61160738560074</v>
       </c>
-      <c r="H29" t="n">
-        <v>1986.070276191838</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>1999.891731446231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1588.439568809601</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.369195925311865</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.3796038342097129</v>
+      </c>
+      <c r="D30">
         <v>119.7676163592111</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>15.65077282414164</v>
+      </c>
+      <c r="F30">
         <v>275.5986081158443</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>90.49155383433408</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>14.41741107840111</v>
       </c>
-      <c r="H30" t="n">
-        <v>2089.083954122704</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>2104.745134855743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1427.722219513532</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.369195925311865</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.3796038342097129</v>
+      </c>
+      <c r="D31">
         <v>158.8222738676496</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>16.5714065196794</v>
+      </c>
+      <c r="F31">
         <v>215.5793556817272</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>63.53662290495799</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>7.208705539200553</v>
       </c>
-      <c r="H31" t="n">
-        <v>1873.238373432379</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>1889.820187860956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1590.411560825503</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.3281741558327689</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.3374256304086338</v>
+      </c>
+      <c r="D32">
         <v>239.5352327184222</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>16.5714065196794</v>
+      </c>
+      <c r="F32">
         <v>247.4263059528914</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>59.68591848647567</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>16.82031292480129</v>
       </c>
-      <c r="H32" t="n">
-        <v>2154.207505063926</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>2170.788163058181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1598.299528889113</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.3418480789924676</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.3514850316756602</v>
+      </c>
+      <c r="D33">
         <v>203.0842190438797</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>23.93647608398134</v>
+      </c>
+      <c r="F33">
         <v>229.053065411835</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>75.08873616040492</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>15.6188620016012</v>
       </c>
-      <c r="H33" t="n">
-        <v>2121.486259585826</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>2145.432372622491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1907.902275385832</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.293989347933522</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.3022771272410677</v>
+      </c>
+      <c r="D34">
         <v>177.0477807049207</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>48.79358586350041</v>
+      </c>
+      <c r="F34">
         <v>191.0817016269854</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>42.35774860330532</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>12.01450923200092</v>
       </c>
-      <c r="H34" t="n">
-        <v>2330.698004900978</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>2379.499878543786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1991.711936061697</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.2256197321350286</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.2319801209059357</v>
+      </c>
+      <c r="D35">
         <v>145.80405469817</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>54.31738803672686</v>
+      </c>
+      <c r="F35">
         <v>148.2108070311873</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>26.95493092937611</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>9.61160738560074</v>
       </c>
-      <c r="H35" t="n">
-        <v>2322.518955838166</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>2376.842704263664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1498.713932086028</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.1845979626559325</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.1898019171048565</v>
+      </c>
+      <c r="D36">
         <v>148.407698532066</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>57.07928912334012</v>
+      </c>
+      <c r="F36">
         <v>91.86620270528145</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>25.02957872013495</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>6.00725461600046</v>
       </c>
-      <c r="H36" t="n">
-        <v>1770.209264622167</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>1827.293757699956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1391.240367219333</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.1709240394962338</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.1757425158378301</v>
+      </c>
+      <c r="D37">
         <v>85.92024651856448</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>56.15865542780237</v>
+      </c>
+      <c r="F37">
         <v>79.6173756779106</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>32.73098755709957</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>2.402901846400185</v>
       </c>
-      <c r="H37" t="n">
-        <v>1592.082802858804</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>1648.246276762948</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1106.287520921398</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.1025544236977403</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.1054455095026981</v>
+      </c>
+      <c r="D38">
         <v>70.29838351518914</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>38.66661521258523</v>
+      </c>
+      <c r="F38">
         <v>51.44507351495761</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>32.73098755709957</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>2.402901846400185</v>
       </c>
-      <c r="H38" t="n">
-        <v>1263.267421778742</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>1301.936928077132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>791.7547943849215</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.1435761931768364</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.1476237133037773</v>
+      </c>
+      <c r="D39">
         <v>33.84736984064661</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>16.5714065196794</v>
+      </c>
+      <c r="F39">
         <v>36.74648108211256</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>19.25352209241152</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>3.604352769600276</v>
       </c>
-      <c r="H39" t="n">
-        <v>885.3500963628694</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>901.9255504026758</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>466.3761117609813</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.1640870779163844</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.1687128152043169</v>
+      </c>
+      <c r="D40">
         <v>36.45101367454251</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>7.365069564301947</v>
+      </c>
+      <c r="F40">
         <v>29.39718486569006</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>26.95493092937611</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>559.3433283085064</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>566.7130236100963</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>359.8885429022373</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.1709240394962338</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.1757425158378301</v>
+      </c>
+      <c r="D41">
         <v>13.01821916947947</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>3.682534782150974</v>
+      </c>
+      <c r="F41">
         <v>23.27277135200463</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>32.73098755709957</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>429.0814450203172</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>432.7687982788098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>233.6810538844665</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.1914349242357819</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.1968316177383697</v>
+      </c>
+      <c r="D42">
         <v>20.82915067116714</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>4.603168477688718</v>
+      </c>
+      <c r="F42">
         <v>24.49765405474172</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>28.88028313861727</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>308.0795766732284</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>312.6881418444198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>163.6753373199216</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.2119458089753299</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.2179207196389093</v>
+      </c>
+      <c r="D43">
         <v>39.0546575084384</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>1.841267391075487</v>
+      </c>
+      <c r="F43">
         <v>19.59812324379338</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>19.25352209241152</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>1.201450923200093</v>
       </c>
-      <c r="H43" t="n">
-        <v>242.9950368967403</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>244.8422791984794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>181.4232654630455</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.2119458089753299</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.2179207196389093</v>
+      </c>
+      <c r="D44">
         <v>26.03643833895894</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>3.682534782150974</v>
+      </c>
+      <c r="F44">
         <v>26.94741946021589</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>11.55211325544691</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>246.1711823266426</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>249.8596920194572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>244.5270099719311</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.06836961579849353</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.07029700633513204</v>
+      </c>
+      <c r="D45">
         <v>49.469232844022</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>5.523802173226464</v>
+      </c>
+      <c r="F45">
         <v>45.32066000127217</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>25.02957872013495</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>4.80580369280037</v>
       </c>
-      <c r="H45" t="n">
-        <v>369.2206548459591</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>374.7463844097222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>567.9337005799688</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.05469569263879482</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.05623760506810562</v>
+      </c>
+      <c r="D46">
         <v>78.10931501687681</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>27.61901086613231</v>
+      </c>
+      <c r="F46">
         <v>139.6366281120279</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>84.71549720661064</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>2.402901846400185</v>
       </c>
-      <c r="H46" t="n">
-        <v>872.8527384545231</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>900.4732912330846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1079.665628706711</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.116228346857439</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.1195049107697245</v>
+      </c>
+      <c r="D47">
         <v>132.7858355286905</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>80.09513151178371</v>
+      </c>
+      <c r="F47">
         <v>205.7802940598305</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>119.3718369729513</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>13.21596015520101</v>
       </c>
-      <c r="H47" t="n">
-        <v>1550.935783770242</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>1631.034191845938</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1552.943712523353</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.1777610010760831</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.1827722164713433</v>
+      </c>
+      <c r="D48">
         <v>140.5967670303783</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>87.46020107608565</v>
+      </c>
+      <c r="F48">
         <v>216.8042383844642</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>152.1028245300509</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>20.42466569440157</v>
       </c>
-      <c r="H48" t="n">
-        <v>2083.049969163724</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>2170.515181455205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1689.011161620637</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.3076632710932207</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.3163365285080942</v>
+      </c>
+      <c r="D49">
         <v>177.0477807049207</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>41.42851629919848</v>
+      </c>
+      <c r="F49">
         <v>221.7037691954126</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>103.9690192990221</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>8.410156462400646</v>
       </c>
-      <c r="H49" t="n">
-        <v>2200.449550553486</v>
+      <c r="I49">
+        <v>2241.8867401101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_NOx.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1488.853972006515</v>
+        <v>2158.190931595532</v>
       </c>
       <c r="C2">
-        <v>0.3585147323091735</v>
+        <v>0.5196904858777323</v>
       </c>
       <c r="D2">
-        <v>182.2550683727125</v>
+        <v>264.1906078063583</v>
       </c>
       <c r="E2">
-        <v>31.30154564828328</v>
+        <v>45.3736318223376</v>
       </c>
       <c r="F2">
-        <v>216.8042383844642</v>
+        <v>314.2718829451322</v>
       </c>
       <c r="G2">
-        <v>102.043667089781</v>
+        <v>147.9189504684044</v>
       </c>
       <c r="H2">
-        <v>10.81305830880082</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I2">
-        <v>2032.430064542866</v>
+        <v>2946.139928341704</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1403.072319314748</v>
+        <v>2033.844831563206</v>
       </c>
       <c r="C3">
-        <v>0.4569305411783583</v>
+        <v>0.6623506192559333</v>
       </c>
       <c r="D3">
-        <v>223.9133697150469</v>
+        <v>324.5770324478112</v>
       </c>
       <c r="E3">
-        <v>11.96823804199067</v>
+        <v>17.34874157912908</v>
       </c>
       <c r="F3">
-        <v>238.8521270337318</v>
+        <v>346.2317354480269</v>
       </c>
       <c r="G3">
-        <v>90.49155383433408</v>
+        <v>131.1734089059434</v>
       </c>
       <c r="H3">
-        <v>27.63337123360212</v>
+        <v>40.05637377949108</v>
       </c>
       <c r="I3">
-        <v>1996.387909714632</v>
+        <v>2893.894474342863</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1311.374690575275</v>
+        <v>1900.923138425204</v>
       </c>
       <c r="C4">
-        <v>0.3585147323091735</v>
+        <v>0.5196904858777323</v>
       </c>
       <c r="D4">
-        <v>111.9566848575234</v>
+        <v>162.2885162239056</v>
       </c>
       <c r="E4">
-        <v>11.04760434645293</v>
+        <v>16.01422299611916</v>
       </c>
       <c r="F4">
-        <v>189.8568189242483</v>
+        <v>275.2098409971496</v>
       </c>
       <c r="G4">
-        <v>86.64084941585185</v>
+        <v>125.5915617184565</v>
       </c>
       <c r="H4">
-        <v>24.02901846400184</v>
+        <v>34.83162937347051</v>
       </c>
       <c r="I4">
-        <v>1735.264181315662</v>
+        <v>2515.378600220183</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1521.39184026891</v>
+        <v>2205.356693676759</v>
       </c>
       <c r="C5">
-        <v>0.3866335348432262</v>
+        <v>0.5604505239857898</v>
       </c>
       <c r="D5">
-        <v>151.0113423659619</v>
+        <v>218.9007893252682</v>
       </c>
       <c r="E5">
-        <v>19.33330760629261</v>
+        <v>28.02489024320853</v>
       </c>
       <c r="F5">
-        <v>229.053065411835</v>
+        <v>332.0273565578513</v>
       </c>
       <c r="G5">
-        <v>71.23803174192261</v>
+        <v>103.2641729685087</v>
       </c>
       <c r="H5">
-        <v>20.42466569440157</v>
+        <v>29.60688496744992</v>
       </c>
       <c r="I5">
-        <v>2012.838886624166</v>
+        <v>2917.741238263031</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1414.904271410166</v>
+        <v>2050.996017774562</v>
       </c>
       <c r="C6">
-        <v>0.4006929361102527</v>
+        <v>0.5808305430398184</v>
       </c>
       <c r="D6">
-        <v>184.8587122066084</v>
+        <v>267.9647593464489</v>
       </c>
       <c r="E6">
-        <v>16.5714065196794</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F6">
-        <v>244.9765405474172</v>
+        <v>355.1094722543866</v>
       </c>
       <c r="G6">
-        <v>73.16338395116375</v>
+        <v>106.0550965622521</v>
       </c>
       <c r="H6">
-        <v>18.02176384800138</v>
+        <v>26.12372203010288</v>
       </c>
       <c r="I6">
-        <v>1952.896771419147</v>
+        <v>2830.85123300497</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1517.447856237104</v>
+        <v>2199.639631606307</v>
       </c>
       <c r="C7">
-        <v>0.4147523373772791</v>
+        <v>0.6012105620938472</v>
       </c>
       <c r="D7">
-        <v>213.4987943794633</v>
+        <v>309.4804262874479</v>
       </c>
       <c r="E7">
-        <v>16.5714065196794</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F7">
-        <v>257.225367574788</v>
+        <v>372.8649458671059</v>
       </c>
       <c r="G7">
-        <v>69.31267953268144</v>
+        <v>100.4732493747652</v>
       </c>
       <c r="H7">
-        <v>15.6188620016012</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I7">
-        <v>2090.089718582695</v>
+        <v>3029.721357284654</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1550.97172050745</v>
+        <v>2248.234659205147</v>
       </c>
       <c r="C8">
-        <v>0.3796038342097129</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D8">
-        <v>208.2915067116716</v>
+        <v>301.9321232072664</v>
       </c>
       <c r="E8">
-        <v>18.41267391075487</v>
+        <v>26.69037166019859</v>
       </c>
       <c r="F8">
-        <v>240.0770097364688</v>
+        <v>348.0072828092989</v>
       </c>
       <c r="G8">
-        <v>59.68591848647567</v>
+        <v>86.51863140604783</v>
       </c>
       <c r="H8">
-        <v>8.410156462400646</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I8">
-        <v>2086.228589649431</v>
+        <v>3024.124399083133</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1734.366977986398</v>
+        <v>2514.078045481151</v>
       </c>
       <c r="C9">
-        <v>0.3514850316756602</v>
+        <v>0.5095004763507178</v>
       </c>
       <c r="D9">
-        <v>182.2550683727125</v>
+        <v>264.1906078063583</v>
       </c>
       <c r="E9">
-        <v>29.46027825720779</v>
+        <v>42.70459465631775</v>
       </c>
       <c r="F9">
-        <v>213.129590276253</v>
+        <v>308.9452408613163</v>
       </c>
       <c r="G9">
-        <v>63.53662290495799</v>
+        <v>92.10047859353473</v>
       </c>
       <c r="H9">
-        <v>13.21596015520101</v>
+        <v>19.15739615540878</v>
       </c>
       <c r="I9">
-        <v>2236.315982984405</v>
+        <v>3241.685864030438</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1883.252375187049</v>
+        <v>2729.897138640706</v>
       </c>
       <c r="C10">
-        <v>0.4288117386443055</v>
+        <v>0.6215905811478759</v>
       </c>
       <c r="D10">
-        <v>166.6332053693371</v>
+        <v>241.5456985658132</v>
       </c>
       <c r="E10">
-        <v>55.23802173226461</v>
+        <v>80.07111498059578</v>
       </c>
       <c r="F10">
-        <v>204.5554113570934</v>
+        <v>296.5164093324128</v>
       </c>
       <c r="G10">
-        <v>48.1338052310288</v>
+        <v>69.77308984358693</v>
       </c>
       <c r="H10">
-        <v>7.208705539200553</v>
+        <v>10.44948881204115</v>
       </c>
       <c r="I10">
-        <v>2365.450336154618</v>
+        <v>3428.874530756304</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2001.571896141209</v>
+        <v>2901.409000754259</v>
       </c>
       <c r="C11">
-        <v>0.2671286240735017</v>
+        <v>0.3872203620265456</v>
       </c>
       <c r="D11">
-        <v>143.2004108642741</v>
+        <v>207.5783347049957</v>
       </c>
       <c r="E11">
-        <v>58.92055651441558</v>
+        <v>85.4091893126355</v>
       </c>
       <c r="F11">
-        <v>113.914091354549</v>
+        <v>165.1259045982897</v>
       </c>
       <c r="G11">
-        <v>9.626761046205761</v>
+        <v>13.9546179687174</v>
       </c>
       <c r="H11">
-        <v>8.410156462400646</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I11">
-        <v>2335.911001007128</v>
+        <v>3386.055337981638</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1458.288095760024</v>
+        <v>2113.883700549531</v>
       </c>
       <c r="C12">
-        <v>0.2249504202724225</v>
+        <v>0.3260803048644595</v>
       </c>
       <c r="D12">
-        <v>145.80405469817</v>
+        <v>211.3524862450865</v>
       </c>
       <c r="E12">
-        <v>35.90471412597201</v>
+        <v>52.04622473738726</v>
       </c>
       <c r="F12">
-        <v>101.6652643271781</v>
+        <v>147.3704309855704</v>
       </c>
       <c r="G12">
-        <v>21.17887430165266</v>
+        <v>30.70015953117824</v>
       </c>
       <c r="H12">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I12">
-        <v>1765.468855479669</v>
+        <v>2559.162245290964</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1271.934850257222</v>
+        <v>1843.752517720685</v>
       </c>
       <c r="C13">
-        <v>0.1546534139372905</v>
+        <v>0.2241802095943159</v>
       </c>
       <c r="D13">
-        <v>85.92024651856448</v>
+        <v>124.5470008229974</v>
       </c>
       <c r="E13">
-        <v>47.87295216796267</v>
+        <v>69.39496631651633</v>
       </c>
       <c r="F13">
-        <v>63.69390054232848</v>
+        <v>92.32846278614053</v>
       </c>
       <c r="G13">
-        <v>34.65633976634072</v>
+        <v>50.2366246873826</v>
       </c>
       <c r="H13">
-        <v>6.00725461600046</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I13">
-        <v>1510.240197282356</v>
+        <v>2189.191659886684</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1007.687920126264</v>
+        <v>1460.70935900042</v>
       </c>
       <c r="C14">
-        <v>0.1335643120367509</v>
+        <v>0.1936101810132728</v>
       </c>
       <c r="D14">
-        <v>88.52389035246036</v>
+        <v>128.3211523630883</v>
       </c>
       <c r="E14">
-        <v>30.38091195274555</v>
+        <v>44.03911323932768</v>
       </c>
       <c r="F14">
-        <v>42.87089459579803</v>
+        <v>62.14415764451764</v>
       </c>
       <c r="G14">
-        <v>26.95493092937611</v>
+        <v>39.07293031240867</v>
       </c>
       <c r="H14">
-        <v>6.00725461600046</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I14">
-        <v>1202.559366884681</v>
+        <v>1743.188230084143</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>711.8891177408633</v>
+        <v>1031.929703716539</v>
       </c>
       <c r="C15">
-        <v>0.1898019171048565</v>
+        <v>0.2751302572293877</v>
       </c>
       <c r="D15">
-        <v>57.28016434570965</v>
+        <v>83.03133388199828</v>
       </c>
       <c r="E15">
-        <v>17.49204021521713</v>
+        <v>25.35585307718867</v>
       </c>
       <c r="F15">
-        <v>36.74648108211256</v>
+        <v>53.26642083815799</v>
       </c>
       <c r="G15">
-        <v>23.10422651089381</v>
+        <v>33.49108312492173</v>
       </c>
       <c r="I15">
-        <v>846.7018318119013</v>
+        <v>1227.349524896035</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>437.7822275303929</v>
+        <v>634.5938898201435</v>
       </c>
       <c r="C16">
-        <v>0.1546534139372905</v>
+        <v>0.2241802095943159</v>
       </c>
       <c r="D16">
-        <v>39.0546575084384</v>
+        <v>56.61227310136248</v>
       </c>
       <c r="E16">
-        <v>9.206336955377436</v>
+        <v>13.34518583009929</v>
       </c>
       <c r="F16">
-        <v>28.17230216295297</v>
+        <v>40.83758930925445</v>
       </c>
       <c r="G16">
-        <v>21.17887430165266</v>
+        <v>30.70015953117824</v>
       </c>
       <c r="I16">
-        <v>535.5490518727516</v>
+        <v>776.3132778016322</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>340.1686227432104</v>
+        <v>493.0966035764625</v>
       </c>
       <c r="C17">
-        <v>0.2179207196389093</v>
+        <v>0.3158902953374452</v>
       </c>
       <c r="D17">
-        <v>13.01821916947947</v>
+        <v>18.87075770045415</v>
       </c>
       <c r="E17">
-        <v>1.841267391075487</v>
+        <v>2.66903716601986</v>
       </c>
       <c r="F17">
-        <v>15.92347513558212</v>
+        <v>23.08211569653513</v>
       </c>
       <c r="G17">
-        <v>25.02957872013495</v>
+        <v>36.28200671866522</v>
       </c>
       <c r="I17">
-        <v>396.1990838791214</v>
+        <v>574.3164111534743</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>221.8491017890503</v>
+        <v>321.5847414629104</v>
       </c>
       <c r="C18">
-        <v>0.1968316177383697</v>
+        <v>0.285320266756402</v>
       </c>
       <c r="D18">
-        <v>23.43279450506304</v>
+        <v>33.96736386081746</v>
       </c>
       <c r="E18">
-        <v>3.682534782150974</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F18">
-        <v>29.39718486569006</v>
+        <v>42.61313667052636</v>
       </c>
       <c r="G18">
-        <v>15.40281767392921</v>
+        <v>22.32738874994782</v>
       </c>
       <c r="I18">
-        <v>293.961265233622</v>
+        <v>426.1160253429982</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>132.1234650654789</v>
+        <v>191.5215793601334</v>
       </c>
       <c r="C19">
-        <v>0.1757425158378301</v>
+        <v>0.2547502381753589</v>
       </c>
       <c r="D19">
-        <v>31.24372600675072</v>
+        <v>45.28981848108997</v>
       </c>
       <c r="E19">
-        <v>0.9206336955377434</v>
+        <v>1.33451858300993</v>
       </c>
       <c r="F19">
-        <v>13.47370973010795</v>
+        <v>19.53102097399125</v>
       </c>
       <c r="G19">
-        <v>32.73098755709957</v>
+        <v>47.44570109363914</v>
       </c>
       <c r="H19">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I19">
-        <v>211.8697154940128</v>
+        <v>307.1189701987126</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>159.7313532881162</v>
+        <v>231.5410138532955</v>
       </c>
       <c r="C20">
-        <v>0.1335643120367509</v>
+        <v>0.1936101810132728</v>
       </c>
       <c r="D20">
-        <v>39.0546575084384</v>
+        <v>56.61227310136248</v>
       </c>
       <c r="E20">
-        <v>2.761901086613232</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F20">
-        <v>26.94741946021589</v>
+        <v>39.0620419479825</v>
       </c>
       <c r="G20">
-        <v>26.95493092937611</v>
+        <v>39.07293031240867</v>
       </c>
       <c r="H20">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I20">
-        <v>256.7852775079967</v>
+        <v>372.2270066137658</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>274.1068902104711</v>
+        <v>397.3358138963958</v>
       </c>
       <c r="C21">
-        <v>0.06326730570161883</v>
+        <v>0.09171008574312924</v>
       </c>
       <c r="D21">
-        <v>54.67652051181376</v>
+        <v>79.25718234190744</v>
       </c>
       <c r="E21">
-        <v>6.444435868764205</v>
+        <v>9.341630081069507</v>
       </c>
       <c r="F21">
-        <v>47.77042540674636</v>
+        <v>69.24634708960536</v>
       </c>
       <c r="G21">
-        <v>44.28310081254645</v>
+        <v>64.19124265609999</v>
       </c>
       <c r="I21">
-        <v>427.3446401160436</v>
+        <v>619.4639261508213</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>551.171768444796</v>
+        <v>798.9594243456309</v>
       </c>
       <c r="C22">
-        <v>0.05623760506810562</v>
+        <v>0.08152007621611487</v>
       </c>
       <c r="D22">
-        <v>80.71295885077265</v>
+        <v>116.9986977428158</v>
       </c>
       <c r="E22">
-        <v>26.69837717059456</v>
+        <v>38.70103890728795</v>
       </c>
       <c r="F22">
-        <v>134.7370973010795</v>
+        <v>195.3102097399126</v>
       </c>
       <c r="G22">
-        <v>80.86479278812831</v>
+        <v>117.218790937226</v>
       </c>
       <c r="H22">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I22">
-        <v>876.6441340068393</v>
+        <v>1270.752844686436</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1047.127760444318</v>
+        <v>1517.879979704936</v>
       </c>
       <c r="C23">
-        <v>0.1265346114032377</v>
+        <v>0.1834201714862585</v>
       </c>
       <c r="D23">
-        <v>137.9931231964823</v>
+        <v>200.030031624814</v>
       </c>
       <c r="E23">
-        <v>77.33323042517046</v>
+        <v>112.0995609728341</v>
       </c>
       <c r="F23">
-        <v>198.430997843408</v>
+        <v>287.6386725260531</v>
       </c>
       <c r="G23">
-        <v>113.5957803452279</v>
+        <v>164.6644920308652</v>
       </c>
       <c r="H23">
-        <v>14.41741107840111</v>
+        <v>20.8989776240823</v>
       </c>
       <c r="I23">
-        <v>1589.024837944411</v>
+        <v>2303.395134655071</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1506.601900149639</v>
+        <v>2183.917710912565</v>
       </c>
       <c r="C24">
-        <v>0.1898019171048565</v>
+        <v>0.2751302572293877</v>
       </c>
       <c r="D24">
-        <v>145.80405469817</v>
+        <v>211.3524862450865</v>
       </c>
       <c r="E24">
-        <v>83.77766629393469</v>
+        <v>121.4411910539036</v>
       </c>
       <c r="F24">
-        <v>209.4549421680418</v>
+        <v>303.6185987775005</v>
       </c>
       <c r="G24">
-        <v>144.4014156930863</v>
+        <v>209.3192695307609</v>
       </c>
       <c r="H24">
-        <v>21.62611661760165</v>
+        <v>31.34846643612345</v>
       </c>
       <c r="I24">
-        <v>2111.855897537579</v>
+        <v>3061.272853213169</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1637.739369207167</v>
+        <v>2374.010024755086</v>
       </c>
       <c r="C25">
-        <v>0.3233662291416074</v>
+        <v>0.4687404382426605</v>
       </c>
       <c r="D25">
-        <v>182.2550683727125</v>
+        <v>264.1906078063583</v>
       </c>
       <c r="E25">
-        <v>39.58724890812299</v>
+        <v>57.38429906942696</v>
       </c>
       <c r="F25">
-        <v>213.129590276253</v>
+        <v>308.9452408613163</v>
       </c>
       <c r="G25">
-        <v>98.19296267129872</v>
+        <v>142.3371032809174</v>
       </c>
       <c r="H25">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I25">
-        <v>2180.839213050297</v>
+        <v>3161.268667960736</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1535.195784380229</v>
+        <v>2225.36641092334</v>
       </c>
       <c r="C26">
-        <v>0.344455331042147</v>
+        <v>0.4993104668237037</v>
       </c>
       <c r="D26">
-        <v>177.0477807049207</v>
+        <v>256.6423047261765</v>
       </c>
       <c r="E26">
-        <v>32.22217934382103</v>
+        <v>46.70815040534751</v>
       </c>
       <c r="F26">
-        <v>225.3784173036238</v>
+        <v>326.7007144740356</v>
       </c>
       <c r="G26">
-        <v>107.8197237175044</v>
+        <v>156.2917212496347</v>
       </c>
       <c r="H26">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I26">
-        <v>2087.619948166741</v>
+        <v>3026.141263994746</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1446.456143664608</v>
+        <v>2096.732514338175</v>
       </c>
       <c r="C27">
-        <v>0.4428711399113318</v>
+        <v>0.6419706002019046</v>
       </c>
       <c r="D27">
-        <v>216.1024382133591</v>
+        <v>313.254577827539</v>
       </c>
       <c r="E27">
-        <v>12.88887173752841</v>
+        <v>18.68326016213901</v>
       </c>
       <c r="F27">
-        <v>247.4263059528914</v>
+        <v>358.6605669769303</v>
       </c>
       <c r="G27">
-        <v>94.34225825281639</v>
+        <v>136.7552560934304</v>
       </c>
       <c r="H27">
-        <v>25.23046938720193</v>
+        <v>36.57321084214403</v>
       </c>
       <c r="I27">
-        <v>2042.889358348317</v>
+        <v>2961.301356840559</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1466.176063823635</v>
+        <v>2125.317824690435</v>
       </c>
       <c r="C28">
-        <v>0.4077226367437658</v>
+        <v>0.5910205525668328</v>
       </c>
       <c r="D28">
-        <v>169.2368492032331</v>
+        <v>245.319850105904</v>
       </c>
       <c r="E28">
-        <v>12.88887173752841</v>
+        <v>18.68326016213901</v>
       </c>
       <c r="F28">
-        <v>221.7037691954126</v>
+        <v>321.3740723902197</v>
       </c>
       <c r="G28">
-        <v>100.1183148805398</v>
+        <v>145.1280268746609</v>
       </c>
       <c r="H28">
-        <v>15.6188620016012</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I28">
-        <v>1986.150453478694</v>
+        <v>2879.054613868681</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1530.265804340472</v>
+        <v>2218.220083335274</v>
       </c>
       <c r="C29">
-        <v>0.4358414392778186</v>
+        <v>0.6317805906748903</v>
       </c>
       <c r="D29">
-        <v>143.2004108642741</v>
+        <v>207.5783347049957</v>
       </c>
       <c r="E29">
-        <v>13.80950543306615</v>
+        <v>20.01777874514895</v>
       </c>
       <c r="F29">
-        <v>221.7037691954126</v>
+        <v>321.3740723902197</v>
       </c>
       <c r="G29">
-        <v>80.86479278812831</v>
+        <v>117.218790937226</v>
       </c>
       <c r="H29">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I29">
-        <v>1999.891731446231</v>
+        <v>2898.973492452927</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1588.439568809601</v>
+        <v>2302.546748874439</v>
       </c>
       <c r="C30">
-        <v>0.3796038342097129</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D30">
-        <v>119.7676163592111</v>
+        <v>173.6109708441782</v>
       </c>
       <c r="E30">
-        <v>15.65077282414164</v>
+        <v>22.6868159111688</v>
       </c>
       <c r="F30">
-        <v>275.5986081158443</v>
+        <v>399.4981562861849</v>
       </c>
       <c r="G30">
-        <v>90.49155383433408</v>
+        <v>131.1734089059434</v>
       </c>
       <c r="H30">
-        <v>14.41741107840111</v>
+        <v>20.8989776240823</v>
       </c>
       <c r="I30">
-        <v>2104.745134855743</v>
+        <v>3050.965338960455</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1427.722219513532</v>
+        <v>2069.57646950353</v>
       </c>
       <c r="C31">
-        <v>0.3796038342097129</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D31">
-        <v>158.8222738676496</v>
+        <v>230.2232439455405</v>
       </c>
       <c r="E31">
-        <v>16.5714065196794</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F31">
-        <v>215.5793556817272</v>
+        <v>312.49633558386</v>
       </c>
       <c r="G31">
-        <v>63.53662290495799</v>
+        <v>92.10047859353473</v>
       </c>
       <c r="H31">
-        <v>7.208705539200553</v>
+        <v>10.44948881204115</v>
       </c>
       <c r="I31">
-        <v>1889.820187860956</v>
+        <v>2739.417611447144</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1590.411560825503</v>
+        <v>2305.405279909664</v>
       </c>
       <c r="C32">
-        <v>0.3374256304086338</v>
+        <v>0.4891204572966892</v>
       </c>
       <c r="D32">
-        <v>239.5352327184222</v>
+        <v>347.2219416883564</v>
       </c>
       <c r="E32">
-        <v>16.5714065196794</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F32">
-        <v>247.4263059528914</v>
+        <v>358.6605669769303</v>
       </c>
       <c r="G32">
-        <v>59.68591848647567</v>
+        <v>86.51863140604783</v>
       </c>
       <c r="H32">
-        <v>16.82031292480129</v>
+        <v>24.38214056142935</v>
       </c>
       <c r="I32">
-        <v>2170.788163058181</v>
+        <v>3146.699015493903</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1598.299528889113</v>
+        <v>2316.839404050567</v>
       </c>
       <c r="C33">
-        <v>0.3514850316756602</v>
+        <v>0.5095004763507178</v>
       </c>
       <c r="D33">
-        <v>203.0842190438797</v>
+        <v>294.3838201270847</v>
       </c>
       <c r="E33">
-        <v>23.93647608398134</v>
+        <v>34.69748315825817</v>
       </c>
       <c r="F33">
-        <v>229.053065411835</v>
+        <v>332.0273565578513</v>
       </c>
       <c r="G33">
-        <v>75.08873616040492</v>
+        <v>108.8460201559956</v>
       </c>
       <c r="H33">
-        <v>15.6188620016012</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I33">
-        <v>2145.432372622491</v>
+        <v>3109.944143618863</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1907.902275385832</v>
+        <v>2765.62877658103</v>
       </c>
       <c r="C34">
-        <v>0.3022771272410677</v>
+        <v>0.4381704096616175</v>
       </c>
       <c r="D34">
-        <v>177.0477807049207</v>
+        <v>256.6423047261765</v>
       </c>
       <c r="E34">
-        <v>48.79358586350041</v>
+        <v>70.72948489952627</v>
       </c>
       <c r="F34">
-        <v>191.0817016269854</v>
+        <v>276.9853883584215</v>
       </c>
       <c r="G34">
-        <v>42.35774860330532</v>
+        <v>61.40031906235647</v>
       </c>
       <c r="H34">
-        <v>12.01450923200092</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I34">
-        <v>2379.499878543786</v>
+        <v>3449.240258723908</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1991.711936061697</v>
+        <v>2887.116345578129</v>
       </c>
       <c r="C35">
-        <v>0.2319801209059357</v>
+        <v>0.3362703143914738</v>
       </c>
       <c r="D35">
-        <v>145.80405469817</v>
+        <v>211.3524862450865</v>
       </c>
       <c r="E35">
-        <v>54.31738803672686</v>
+        <v>78.73659639758584</v>
       </c>
       <c r="F35">
-        <v>148.2108070311873</v>
+        <v>214.8412307139039</v>
       </c>
       <c r="G35">
-        <v>26.95493092937611</v>
+        <v>39.07293031240867</v>
       </c>
       <c r="H35">
-        <v>9.61160738560074</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I35">
-        <v>2376.842704263664</v>
+        <v>3445.388511310893</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1498.713932086028</v>
+        <v>2172.483586771662</v>
       </c>
       <c r="C36">
-        <v>0.1898019171048565</v>
+        <v>0.2751302572293877</v>
       </c>
       <c r="D36">
-        <v>148.407698532066</v>
+        <v>215.1266377851773</v>
       </c>
       <c r="E36">
-        <v>57.07928912334012</v>
+        <v>82.74015214661563</v>
       </c>
       <c r="F36">
-        <v>91.86620270528145</v>
+        <v>133.1660520953949</v>
       </c>
       <c r="G36">
-        <v>25.02957872013495</v>
+        <v>36.28200671866522</v>
       </c>
       <c r="H36">
-        <v>6.00725461600046</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I36">
-        <v>1827.293757699956</v>
+        <v>2648.781473118111</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1391.240367219333</v>
+        <v>2016.693645351851</v>
       </c>
       <c r="C37">
-        <v>0.1757425158378301</v>
+        <v>0.2547502381753589</v>
       </c>
       <c r="D37">
-        <v>85.92024651856448</v>
+        <v>124.5470008229974</v>
       </c>
       <c r="E37">
-        <v>56.15865542780237</v>
+        <v>81.4056335636057</v>
       </c>
       <c r="F37">
-        <v>79.6173756779106</v>
+        <v>115.4105784826756</v>
       </c>
       <c r="G37">
-        <v>32.73098755709957</v>
+        <v>47.44570109363914</v>
       </c>
       <c r="H37">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I37">
-        <v>1648.246276762948</v>
+        <v>2389.240472490291</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1106.287520921398</v>
+        <v>1603.635910761714</v>
       </c>
       <c r="C38">
-        <v>0.1054455095026981</v>
+        <v>0.1528501429052154</v>
       </c>
       <c r="D38">
-        <v>70.29838351518914</v>
+        <v>101.9020915824524</v>
       </c>
       <c r="E38">
-        <v>38.66661521258523</v>
+        <v>56.04978048641706</v>
       </c>
       <c r="F38">
-        <v>51.44507351495761</v>
+        <v>74.57298917342115</v>
       </c>
       <c r="G38">
-        <v>32.73098755709957</v>
+        <v>47.44570109363914</v>
       </c>
       <c r="H38">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I38">
-        <v>1301.936928077132</v>
+        <v>1887.242486177896</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>791.7547943849215</v>
+        <v>1147.700210643187</v>
       </c>
       <c r="C39">
-        <v>0.1476237133037773</v>
+        <v>0.2139902000673015</v>
       </c>
       <c r="D39">
-        <v>33.84736984064661</v>
+        <v>49.06397002118079</v>
       </c>
       <c r="E39">
-        <v>16.5714065196794</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F39">
-        <v>36.74648108211256</v>
+        <v>53.26642083815799</v>
       </c>
       <c r="G39">
-        <v>19.25352209241152</v>
+        <v>27.90923593743479</v>
       </c>
       <c r="H39">
-        <v>3.604352769600276</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I39">
-        <v>901.9255504026758</v>
+        <v>1307.399906540227</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>466.3761117609813</v>
+        <v>676.0425898309179</v>
       </c>
       <c r="C40">
-        <v>0.1687128152043169</v>
+        <v>0.2445602286483446</v>
       </c>
       <c r="D40">
-        <v>36.45101367454251</v>
+        <v>52.83812156127163</v>
       </c>
       <c r="E40">
-        <v>7.365069564301947</v>
+        <v>10.67614866407944</v>
       </c>
       <c r="F40">
-        <v>29.39718486569006</v>
+        <v>42.61313667052636</v>
       </c>
       <c r="G40">
-        <v>26.95493092937611</v>
+        <v>39.07293031240867</v>
       </c>
       <c r="I40">
-        <v>566.7130236100963</v>
+        <v>821.4874872678522</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>359.8885429022373</v>
+        <v>521.6819139287213</v>
       </c>
       <c r="C41">
-        <v>0.1757425158378301</v>
+        <v>0.2547502381753589</v>
       </c>
       <c r="D41">
-        <v>13.01821916947947</v>
+        <v>18.87075770045415</v>
       </c>
       <c r="E41">
-        <v>3.682534782150974</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F41">
-        <v>23.27277135200463</v>
+        <v>33.73539986416673</v>
       </c>
       <c r="G41">
-        <v>32.73098755709957</v>
+        <v>47.44570109363914</v>
       </c>
       <c r="I41">
-        <v>432.7687982788098</v>
+        <v>627.3265971571965</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>233.6810538844665</v>
+        <v>338.7359276742656</v>
       </c>
       <c r="C42">
-        <v>0.1968316177383697</v>
+        <v>0.285320266756402</v>
       </c>
       <c r="D42">
-        <v>20.82915067116714</v>
+        <v>30.19321232072665</v>
       </c>
       <c r="E42">
-        <v>4.603168477688718</v>
+        <v>6.672592915049647</v>
       </c>
       <c r="F42">
-        <v>24.49765405474172</v>
+        <v>35.51094722543864</v>
       </c>
       <c r="G42">
-        <v>28.88028313861727</v>
+        <v>41.86385390615216</v>
       </c>
       <c r="I42">
-        <v>312.6881418444198</v>
+        <v>453.2618543083891</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>163.6753373199216</v>
+        <v>237.2580759237472</v>
       </c>
       <c r="C43">
-        <v>0.2179207196389093</v>
+        <v>0.3158902953374452</v>
       </c>
       <c r="D43">
-        <v>39.0546575084384</v>
+        <v>56.61227310136248</v>
       </c>
       <c r="E43">
-        <v>1.841267391075487</v>
+        <v>2.66903716601986</v>
       </c>
       <c r="F43">
-        <v>19.59812324379338</v>
+        <v>28.40875778035093</v>
       </c>
       <c r="G43">
-        <v>19.25352209241152</v>
+        <v>27.90923593743479</v>
       </c>
       <c r="H43">
-        <v>1.201450923200093</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I43">
-        <v>244.8422791984794</v>
+        <v>354.9148516729263</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>181.4232654630455</v>
+        <v>262.9848552407801</v>
       </c>
       <c r="C44">
-        <v>0.2179207196389093</v>
+        <v>0.3158902953374452</v>
       </c>
       <c r="D44">
-        <v>26.03643833895894</v>
+        <v>37.7415154009083</v>
       </c>
       <c r="E44">
-        <v>3.682534782150974</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F44">
-        <v>26.94741946021589</v>
+        <v>39.0620419479825</v>
       </c>
       <c r="G44">
-        <v>11.55211325544691</v>
+        <v>16.74554156246086</v>
       </c>
       <c r="I44">
-        <v>249.8596920194572</v>
+        <v>362.1879187795089</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>244.5270099719311</v>
+        <v>354.4578483680078</v>
       </c>
       <c r="C45">
-        <v>0.07029700633513204</v>
+        <v>0.1019000952701436</v>
       </c>
       <c r="D45">
-        <v>49.469232844022</v>
+        <v>71.70887926172573</v>
       </c>
       <c r="E45">
-        <v>5.523802173226464</v>
+        <v>8.007111498059578</v>
       </c>
       <c r="F45">
-        <v>45.32066000127217</v>
+        <v>65.69525236706146</v>
       </c>
       <c r="G45">
-        <v>25.02957872013495</v>
+        <v>36.28200671866522</v>
       </c>
       <c r="H45">
-        <v>4.80580369280037</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I45">
-        <v>374.7463844097222</v>
+        <v>543.2193241834841</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>567.9337005799688</v>
+        <v>823.2569381450506</v>
       </c>
       <c r="C46">
-        <v>0.05623760506810562</v>
+        <v>0.08152007621611487</v>
       </c>
       <c r="D46">
-        <v>78.10931501687681</v>
+        <v>113.224546202725</v>
       </c>
       <c r="E46">
-        <v>27.61901086613231</v>
+        <v>40.03555749029789</v>
       </c>
       <c r="F46">
-        <v>139.6366281120279</v>
+        <v>202.4123991850003</v>
       </c>
       <c r="G46">
-        <v>84.71549720661064</v>
+        <v>122.8006381247129</v>
       </c>
       <c r="H46">
-        <v>2.402901846400185</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I46">
-        <v>900.4732912330846</v>
+        <v>1305.29476216135</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1079.665628706711</v>
+        <v>1565.045741786163</v>
       </c>
       <c r="C47">
-        <v>0.1195049107697245</v>
+        <v>0.1732301619592441</v>
       </c>
       <c r="D47">
-        <v>132.7858355286905</v>
+        <v>192.4817285446323</v>
       </c>
       <c r="E47">
-        <v>80.09513151178371</v>
+        <v>116.1031167218639</v>
       </c>
       <c r="F47">
-        <v>205.7802940598305</v>
+        <v>298.2919566936846</v>
       </c>
       <c r="G47">
-        <v>119.3718369729513</v>
+        <v>173.0372628120957</v>
       </c>
       <c r="H47">
-        <v>13.21596015520101</v>
+        <v>19.15739615540878</v>
       </c>
       <c r="I47">
-        <v>1631.034191845938</v>
+        <v>2364.290432875808</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1552.943712523353</v>
+        <v>2251.093190240373</v>
       </c>
       <c r="C48">
-        <v>0.1827722164713433</v>
+        <v>0.2649402477023733</v>
       </c>
       <c r="D48">
-        <v>140.5967670303783</v>
+        <v>203.8041831649048</v>
       </c>
       <c r="E48">
-        <v>87.46020107608565</v>
+        <v>126.7792653859433</v>
       </c>
       <c r="F48">
-        <v>216.8042383844642</v>
+        <v>314.2718829451322</v>
       </c>
       <c r="G48">
-        <v>152.1028245300509</v>
+        <v>220.4829639057347</v>
       </c>
       <c r="H48">
-        <v>20.42466569440157</v>
+        <v>29.60688496744992</v>
       </c>
       <c r="I48">
-        <v>2170.515181455205</v>
+        <v>3146.30331085724</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1689.011161620637</v>
+        <v>2448.331831670958</v>
       </c>
       <c r="C49">
-        <v>0.3163365285080942</v>
+        <v>0.4585504287156461</v>
       </c>
       <c r="D49">
-        <v>177.0477807049207</v>
+        <v>256.6423047261765</v>
       </c>
       <c r="E49">
-        <v>41.42851629919848</v>
+        <v>60.05333623544685</v>
       </c>
       <c r="F49">
-        <v>221.7037691954126</v>
+        <v>321.3740723902197</v>
       </c>
       <c r="G49">
-        <v>103.9690192990221</v>
+        <v>150.7098740621478</v>
       </c>
       <c r="H49">
-        <v>8.410156462400646</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I49">
-        <v>2241.8867401101</v>
+        <v>3249.761039794379</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_NOx.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2158.190931595532</v>
+        <v>1466.844826333376</v>
       </c>
       <c r="C2">
-        <v>0.5196904858777323</v>
+        <v>0.3532149493098204</v>
       </c>
       <c r="D2">
-        <v>264.1906078063583</v>
+        <v>179.5608630141593</v>
       </c>
       <c r="E2">
-        <v>45.3736318223376</v>
+        <v>30.83882714739562</v>
       </c>
       <c r="F2">
-        <v>314.2718829451322</v>
+        <v>213.5993061648678</v>
       </c>
       <c r="G2">
-        <v>147.9189504684044</v>
+        <v>100.5351954893234</v>
       </c>
       <c r="H2">
-        <v>15.67423321806173</v>
+        <v>10.65321309901856</v>
       </c>
       <c r="I2">
-        <v>2946.139928341704</v>
+        <v>2002.385446197451</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>2033.844831563206</v>
+        <v>1382.331250246619</v>
       </c>
       <c r="C3">
-        <v>0.6623506192559333</v>
+        <v>0.4501759157870261</v>
       </c>
       <c r="D3">
-        <v>324.5770324478112</v>
+        <v>220.6033459888245</v>
       </c>
       <c r="E3">
-        <v>17.34874157912908</v>
+        <v>11.7913162622395</v>
       </c>
       <c r="F3">
-        <v>346.2317354480269</v>
+        <v>235.3212695036679</v>
       </c>
       <c r="G3">
-        <v>131.1734089059434</v>
+        <v>89.15385260373954</v>
       </c>
       <c r="H3">
-        <v>40.05637377949108</v>
+        <v>27.22487791971409</v>
       </c>
       <c r="I3">
-        <v>2893.894474342863</v>
+        <v>1966.876088440592</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1900.923138425204</v>
+        <v>1291.98915167112</v>
       </c>
       <c r="C4">
-        <v>0.5196904858777323</v>
+        <v>0.3532149493098204</v>
       </c>
       <c r="D4">
-        <v>162.2885162239056</v>
+        <v>110.3016729944122</v>
       </c>
       <c r="E4">
-        <v>16.01422299611916</v>
+        <v>10.88429193437493</v>
       </c>
       <c r="F4">
-        <v>275.2098409971496</v>
+        <v>187.0502398618899</v>
       </c>
       <c r="G4">
-        <v>125.5915617184565</v>
+        <v>85.36007164187833</v>
       </c>
       <c r="H4">
-        <v>34.83162937347051</v>
+        <v>23.6738068867079</v>
       </c>
       <c r="I4">
-        <v>2515.378600220183</v>
+        <v>1709.612449939693</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2205.356693676759</v>
+        <v>1498.901700021456</v>
       </c>
       <c r="C5">
-        <v>0.5604505239857898</v>
+        <v>0.380918082589022</v>
       </c>
       <c r="D5">
-        <v>218.9007893252682</v>
+        <v>148.7790007831607</v>
       </c>
       <c r="E5">
-        <v>28.02489024320853</v>
+        <v>19.04751088515612</v>
       </c>
       <c r="F5">
-        <v>332.0273565578513</v>
+        <v>225.6670635753123</v>
       </c>
       <c r="G5">
-        <v>103.2641729685087</v>
+        <v>70.18494779443331</v>
       </c>
       <c r="H5">
-        <v>29.60688496744992</v>
+        <v>20.12273585370172</v>
       </c>
       <c r="I5">
-        <v>2917.741238263031</v>
+        <v>1983.08387699581</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2050.996017774562</v>
+        <v>1393.988295224102</v>
       </c>
       <c r="C6">
-        <v>0.5808305430398184</v>
+        <v>0.3947696492286227</v>
       </c>
       <c r="D6">
-        <v>267.9647593464489</v>
+        <v>182.126018200076</v>
       </c>
       <c r="E6">
-        <v>24.02133449417873</v>
+        <v>16.32643790156239</v>
       </c>
       <c r="F6">
-        <v>355.1094722543866</v>
+        <v>241.3551482088902</v>
       </c>
       <c r="G6">
-        <v>106.0550965622521</v>
+        <v>72.08183827536392</v>
       </c>
       <c r="H6">
-        <v>26.12372203010288</v>
+        <v>17.75535516503093</v>
       </c>
       <c r="I6">
-        <v>2830.85123300497</v>
+        <v>1924.027862624255</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2199.639631606307</v>
+        <v>1495.016018362296</v>
       </c>
       <c r="C7">
-        <v>0.6012105620938472</v>
+        <v>0.4086212158682237</v>
       </c>
       <c r="D7">
-        <v>309.4804262874479</v>
+        <v>210.3427252451581</v>
       </c>
       <c r="E7">
-        <v>24.02133449417873</v>
+        <v>16.32643790156239</v>
       </c>
       <c r="F7">
-        <v>372.8649458671059</v>
+        <v>253.4229056193346</v>
       </c>
       <c r="G7">
-        <v>100.4732493747652</v>
+        <v>68.28805731350269</v>
       </c>
       <c r="H7">
-        <v>22.64055909275583</v>
+        <v>15.38797447636014</v>
       </c>
       <c r="I7">
-        <v>3029.721357284654</v>
+        <v>2059.192740134082</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2248.234659205147</v>
+        <v>1528.044312465165</v>
       </c>
       <c r="C8">
-        <v>0.5502605144587754</v>
+        <v>0.3739922992692216</v>
       </c>
       <c r="D8">
-        <v>301.9321232072664</v>
+        <v>205.2124148733251</v>
       </c>
       <c r="E8">
-        <v>26.69037166019859</v>
+        <v>18.14048655729153</v>
       </c>
       <c r="F8">
-        <v>348.0072828092989</v>
+        <v>236.5280452447124</v>
       </c>
       <c r="G8">
-        <v>86.51863140604783</v>
+        <v>58.80360490884951</v>
       </c>
       <c r="H8">
-        <v>12.19107028071468</v>
+        <v>8.285832410347766</v>
       </c>
       <c r="I8">
-        <v>3024.124399083133</v>
+        <v>2055.388688758961</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>2514.078045481151</v>
+        <v>1708.728509616165</v>
       </c>
       <c r="C9">
-        <v>0.5095004763507178</v>
+        <v>0.34628916599002</v>
       </c>
       <c r="D9">
-        <v>264.1906078063583</v>
+        <v>179.5608630141593</v>
       </c>
       <c r="E9">
-        <v>42.70459465631775</v>
+        <v>29.02477849166647</v>
       </c>
       <c r="F9">
-        <v>308.9452408613163</v>
+        <v>209.9789789417345</v>
       </c>
       <c r="G9">
-        <v>92.10047859353473</v>
+        <v>62.59738587071078</v>
       </c>
       <c r="H9">
-        <v>19.15739615540878</v>
+        <v>13.02059378768935</v>
       </c>
       <c r="I9">
-        <v>3241.685864030438</v>
+        <v>2203.257398888115</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2729.897138640706</v>
+        <v>1855.412992249501</v>
       </c>
       <c r="C10">
-        <v>0.6215905811478759</v>
+        <v>0.4224727825078245</v>
       </c>
       <c r="D10">
-        <v>241.5456985658132</v>
+        <v>164.16993189866</v>
       </c>
       <c r="E10">
-        <v>80.07111498059578</v>
+        <v>54.42145967187463</v>
       </c>
       <c r="F10">
-        <v>296.5164093324128</v>
+        <v>201.5315487544232</v>
       </c>
       <c r="G10">
-        <v>69.77308984358693</v>
+        <v>47.42226202326577</v>
       </c>
       <c r="H10">
-        <v>10.44948881204115</v>
+        <v>7.102142066012373</v>
       </c>
       <c r="I10">
-        <v>3428.874530756304</v>
+        <v>2330.482809446245</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2901.409000754259</v>
+        <v>1971.983442024339</v>
       </c>
       <c r="C11">
-        <v>0.3872203620265456</v>
+        <v>0.2631797661524152</v>
       </c>
       <c r="D11">
-        <v>207.5783347049957</v>
+        <v>141.083535225411</v>
       </c>
       <c r="E11">
-        <v>85.4091893126355</v>
+        <v>58.04955698333293</v>
       </c>
       <c r="F11">
-        <v>165.1259045982897</v>
+        <v>112.2301439171339</v>
       </c>
       <c r="G11">
-        <v>13.9546179687174</v>
+        <v>9.484452404653146</v>
       </c>
       <c r="H11">
-        <v>12.19107028071468</v>
+        <v>8.285832410347766</v>
       </c>
       <c r="I11">
-        <v>3386.055337981638</v>
+        <v>2301.38014273137</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2113.883700549531</v>
+        <v>1436.730793474876</v>
       </c>
       <c r="C12">
-        <v>0.3260803048644595</v>
+        <v>0.2216250662336128</v>
       </c>
       <c r="D12">
-        <v>211.3524862450865</v>
+        <v>143.6486904113276</v>
       </c>
       <c r="E12">
-        <v>52.04622473738726</v>
+        <v>35.3739487867185</v>
       </c>
       <c r="F12">
-        <v>147.3704309855704</v>
+        <v>100.1623865066894</v>
       </c>
       <c r="G12">
-        <v>30.70015953117824</v>
+        <v>20.86579529023694</v>
       </c>
       <c r="H12">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I12">
-        <v>2559.162245290964</v>
+        <v>1739.370620224753</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1843.752517720685</v>
+        <v>1253.132335079506</v>
       </c>
       <c r="C13">
-        <v>0.2241802095943159</v>
+        <v>0.1523672330356088</v>
       </c>
       <c r="D13">
-        <v>124.5470008229974</v>
+        <v>84.65012113524658</v>
       </c>
       <c r="E13">
-        <v>69.39496631651633</v>
+        <v>47.16526504895799</v>
       </c>
       <c r="F13">
-        <v>92.32846278614053</v>
+        <v>62.75233853431146</v>
       </c>
       <c r="G13">
-        <v>50.2366246873826</v>
+        <v>34.14402865675135</v>
       </c>
       <c r="H13">
-        <v>8.707907343367626</v>
+        <v>5.918451721676975</v>
       </c>
       <c r="I13">
-        <v>2189.191659886684</v>
+        <v>1487.914907409486</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1460.70935900042</v>
+        <v>992.7916639157016</v>
       </c>
       <c r="C14">
-        <v>0.1936101810132728</v>
+        <v>0.1315898830762076</v>
       </c>
       <c r="D14">
-        <v>128.3211523630883</v>
+        <v>87.21527632116313</v>
       </c>
       <c r="E14">
-        <v>44.03911323932768</v>
+        <v>29.93180281953104</v>
       </c>
       <c r="F14">
-        <v>62.14415764451764</v>
+        <v>42.23715093655577</v>
       </c>
       <c r="G14">
-        <v>39.07293031240867</v>
+        <v>26.55646673302881</v>
       </c>
       <c r="H14">
-        <v>8.707907343367626</v>
+        <v>5.918451721676975</v>
       </c>
       <c r="I14">
-        <v>1743.188230084143</v>
+        <v>1184.782402330733</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>1031.929703716539</v>
+        <v>701.3655394786075</v>
       </c>
       <c r="C15">
-        <v>0.2751302572293877</v>
+        <v>0.1869961496346108</v>
       </c>
       <c r="D15">
-        <v>83.03133388199828</v>
+        <v>56.43341409016438</v>
       </c>
       <c r="E15">
-        <v>25.35585307718867</v>
+        <v>17.23346222942697</v>
       </c>
       <c r="F15">
-        <v>53.26642083815799</v>
+        <v>36.20327223133352</v>
       </c>
       <c r="G15">
-        <v>33.49108312492173</v>
+        <v>22.76268577116756</v>
       </c>
       <c r="I15">
-        <v>1227.349524896035</v>
+        <v>834.1853699503346</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>634.5938898201435</v>
+        <v>431.3106641668996</v>
       </c>
       <c r="C16">
-        <v>0.2241802095943159</v>
+        <v>0.1523672330356088</v>
       </c>
       <c r="D16">
-        <v>56.61227310136248</v>
+        <v>38.47732778874844</v>
       </c>
       <c r="E16">
-        <v>13.34518583009929</v>
+        <v>9.070243278645767</v>
       </c>
       <c r="F16">
-        <v>40.83758930925445</v>
+        <v>27.75584204402238</v>
       </c>
       <c r="G16">
-        <v>30.70015953117824</v>
+        <v>20.86579529023694</v>
       </c>
       <c r="I16">
-        <v>776.3132778016322</v>
+        <v>527.6322398015888</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>493.0966035764625</v>
+        <v>335.1400431026589</v>
       </c>
       <c r="C17">
-        <v>0.3158902953374452</v>
+        <v>0.2146992829138124</v>
       </c>
       <c r="D17">
-        <v>18.87075770045415</v>
+        <v>12.82577592958282</v>
       </c>
       <c r="E17">
-        <v>2.66903716601986</v>
+        <v>1.814048655729154</v>
       </c>
       <c r="F17">
-        <v>23.08211569653513</v>
+        <v>15.68808463357787</v>
       </c>
       <c r="G17">
-        <v>36.28200671866522</v>
+        <v>24.65957625209819</v>
       </c>
       <c r="I17">
-        <v>574.3164111534743</v>
+        <v>390.3422278565607</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>321.5847414629104</v>
+        <v>218.5695933278209</v>
       </c>
       <c r="C18">
-        <v>0.285320266756402</v>
+        <v>0.1939219329544112</v>
       </c>
       <c r="D18">
-        <v>33.96736386081746</v>
+        <v>23.08639667324907</v>
       </c>
       <c r="E18">
-        <v>5.338074332039719</v>
+        <v>3.628097311458308</v>
       </c>
       <c r="F18">
-        <v>42.61313667052636</v>
+        <v>28.96261778506682</v>
       </c>
       <c r="G18">
-        <v>22.32738874994782</v>
+        <v>15.17512384744504</v>
       </c>
       <c r="I18">
-        <v>426.1160253429982</v>
+        <v>289.6157508779945</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>191.5215793601334</v>
+        <v>130.1703355819023</v>
       </c>
       <c r="C19">
-        <v>0.2547502381753589</v>
+        <v>0.17314458299501</v>
       </c>
       <c r="D19">
-        <v>45.28981848108997</v>
+        <v>30.78186223099875</v>
       </c>
       <c r="E19">
-        <v>1.33451858300993</v>
+        <v>0.9070243278645771</v>
       </c>
       <c r="F19">
-        <v>19.53102097399125</v>
+        <v>13.27453315148896</v>
       </c>
       <c r="G19">
-        <v>47.44570109363914</v>
+        <v>32.24713817582071</v>
       </c>
       <c r="H19">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I19">
-        <v>307.1189701987126</v>
+        <v>208.7377283954057</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>231.5410138532955</v>
+        <v>157.370107196031</v>
       </c>
       <c r="C20">
-        <v>0.1936101810132728</v>
+        <v>0.1315898830762076</v>
       </c>
       <c r="D20">
-        <v>56.61227310136248</v>
+        <v>38.47732778874844</v>
       </c>
       <c r="E20">
-        <v>4.003555749029789</v>
+        <v>2.721072983593731</v>
       </c>
       <c r="F20">
-        <v>39.0620419479825</v>
+        <v>26.54906630297792</v>
       </c>
       <c r="G20">
-        <v>39.07293031240867</v>
+        <v>26.55646673302881</v>
       </c>
       <c r="H20">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I20">
-        <v>372.2270066137658</v>
+        <v>252.9893212317915</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>397.3358138963958</v>
+        <v>270.0548753117076</v>
       </c>
       <c r="C21">
-        <v>0.09171008574312924</v>
+        <v>0.06233204987820361</v>
       </c>
       <c r="D21">
-        <v>79.25718234190744</v>
+        <v>53.8682589042478</v>
       </c>
       <c r="E21">
-        <v>9.341630081069507</v>
+        <v>6.349170295052041</v>
       </c>
       <c r="F21">
-        <v>69.24634708960536</v>
+        <v>47.06425390073359</v>
       </c>
       <c r="G21">
-        <v>64.19124265609999</v>
+        <v>43.62848106140449</v>
       </c>
       <c r="I21">
-        <v>619.4639261508213</v>
+        <v>421.0273715230237</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>798.9594243456309</v>
+        <v>543.0240118677865</v>
       </c>
       <c r="C22">
-        <v>0.08152007621611487</v>
+        <v>0.0554062665584032</v>
       </c>
       <c r="D22">
-        <v>116.9986977428158</v>
+        <v>79.51981076341345</v>
       </c>
       <c r="E22">
-        <v>38.70103890728795</v>
+        <v>26.30370550807275</v>
       </c>
       <c r="F22">
-        <v>195.3102097399126</v>
+        <v>132.7453315148896</v>
       </c>
       <c r="G22">
-        <v>117.218790937226</v>
+        <v>79.66940019908645</v>
       </c>
       <c r="H22">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I22">
-        <v>1270.752844686436</v>
+        <v>863.6850468084781</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1517.879979704936</v>
+        <v>1031.648480507315</v>
       </c>
       <c r="C23">
-        <v>0.1834201714862585</v>
+        <v>0.1246640997564072</v>
       </c>
       <c r="D23">
-        <v>200.030031624814</v>
+        <v>135.9532248535779</v>
       </c>
       <c r="E23">
-        <v>112.0995609728341</v>
+        <v>76.19004354062447</v>
       </c>
       <c r="F23">
-        <v>287.6386725260531</v>
+        <v>195.4976700492011</v>
       </c>
       <c r="G23">
-        <v>164.6644920308652</v>
+        <v>111.9165383749072</v>
       </c>
       <c r="H23">
-        <v>20.8989776240823</v>
+        <v>14.20428413202475</v>
       </c>
       <c r="I23">
-        <v>2303.395134655071</v>
+        <v>1565.534905557407</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2183.917710912565</v>
+        <v>1484.330393799602</v>
       </c>
       <c r="C24">
-        <v>0.2751302572293877</v>
+        <v>0.1869961496346108</v>
       </c>
       <c r="D24">
-        <v>211.3524862450865</v>
+        <v>143.6486904113276</v>
       </c>
       <c r="E24">
-        <v>121.4411910539036</v>
+        <v>82.53921383567653</v>
       </c>
       <c r="F24">
-        <v>303.6185987775005</v>
+        <v>206.3586517186011</v>
       </c>
       <c r="G24">
-        <v>209.3192695307609</v>
+        <v>142.2667860697972</v>
       </c>
       <c r="H24">
-        <v>31.34846643612345</v>
+        <v>21.30642619803712</v>
       </c>
       <c r="I24">
-        <v>3061.272853213169</v>
+        <v>2080.637158182676</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>2374.010024755086</v>
+        <v>1613.529308966713</v>
       </c>
       <c r="C25">
-        <v>0.4687404382426605</v>
+        <v>0.3185860327108184</v>
       </c>
       <c r="D25">
-        <v>264.1906078063583</v>
+        <v>179.5608630141593</v>
       </c>
       <c r="E25">
-        <v>57.38429906942696</v>
+        <v>39.00204609817681</v>
       </c>
       <c r="F25">
-        <v>308.9452408613163</v>
+        <v>209.9789789417345</v>
       </c>
       <c r="G25">
-        <v>142.3371032809174</v>
+        <v>96.74141452746213</v>
       </c>
       <c r="H25">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I25">
-        <v>3161.268667960736</v>
+        <v>2148.600720335639</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2225.36641092334</v>
+        <v>1512.501585828521</v>
       </c>
       <c r="C26">
-        <v>0.4993104668237037</v>
+        <v>0.3393633826702196</v>
       </c>
       <c r="D26">
-        <v>256.6423047261765</v>
+        <v>174.4305526423263</v>
       </c>
       <c r="E26">
-        <v>46.70815040534751</v>
+        <v>31.7458514752602</v>
       </c>
       <c r="F26">
-        <v>326.7007144740356</v>
+        <v>222.046736352179</v>
       </c>
       <c r="G26">
-        <v>156.2917212496347</v>
+        <v>106.2258669321153</v>
       </c>
       <c r="H26">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I26">
-        <v>3026.141263994746</v>
+        <v>2056.759479367755</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2096.732514338175</v>
+        <v>1425.073748497393</v>
       </c>
       <c r="C27">
-        <v>0.6419706002019046</v>
+        <v>0.4363243491474253</v>
       </c>
       <c r="D27">
-        <v>313.254577827539</v>
+        <v>212.9078804310747</v>
       </c>
       <c r="E27">
-        <v>18.68326016213901</v>
+        <v>12.69834059010408</v>
       </c>
       <c r="F27">
-        <v>358.6605669769303</v>
+        <v>243.7686996909792</v>
       </c>
       <c r="G27">
-        <v>136.7552560934304</v>
+        <v>92.9476335656009</v>
       </c>
       <c r="H27">
-        <v>36.57321084214403</v>
+        <v>24.8574972310433</v>
       </c>
       <c r="I27">
-        <v>2961.301356840559</v>
+        <v>2012.690124355343</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2125.317824690435</v>
+        <v>1444.502156793199</v>
       </c>
       <c r="C28">
-        <v>0.5910205525668328</v>
+        <v>0.4016954325484233</v>
       </c>
       <c r="D28">
-        <v>245.319850105904</v>
+        <v>166.7350870845766</v>
       </c>
       <c r="E28">
-        <v>18.68326016213901</v>
+        <v>12.69834059010408</v>
       </c>
       <c r="F28">
-        <v>321.3740723902197</v>
+        <v>218.4264091290457</v>
       </c>
       <c r="G28">
-        <v>145.1280268746609</v>
+        <v>98.63830500839275</v>
       </c>
       <c r="H28">
-        <v>22.64055909275583</v>
+        <v>15.38797447636014</v>
       </c>
       <c r="I28">
-        <v>2879.054613868681</v>
+        <v>1956.789968514227</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2218.220083335274</v>
+        <v>1507.644483754569</v>
       </c>
       <c r="C29">
-        <v>0.6317805906748903</v>
+        <v>0.4293985658276248</v>
       </c>
       <c r="D29">
-        <v>207.5783347049957</v>
+        <v>141.083535225411</v>
       </c>
       <c r="E29">
-        <v>20.01777874514895</v>
+        <v>13.60536491796866</v>
       </c>
       <c r="F29">
-        <v>321.3740723902197</v>
+        <v>218.4264091290457</v>
       </c>
       <c r="G29">
-        <v>117.218790937226</v>
+        <v>79.66940019908645</v>
       </c>
       <c r="H29">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I29">
-        <v>2898.973492452927</v>
+        <v>1970.328114546591</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2302.546748874439</v>
+        <v>1564.958288227198</v>
       </c>
       <c r="C30">
-        <v>0.5502605144587754</v>
+        <v>0.3739922992692216</v>
       </c>
       <c r="D30">
-        <v>173.6109708441782</v>
+        <v>117.9971385521619</v>
       </c>
       <c r="E30">
-        <v>22.6868159111688</v>
+        <v>15.41941357369781</v>
       </c>
       <c r="F30">
-        <v>399.4981562861849</v>
+        <v>271.5245417350015</v>
       </c>
       <c r="G30">
-        <v>131.1734089059434</v>
+        <v>89.15385260373954</v>
       </c>
       <c r="H30">
-        <v>20.8989776240823</v>
+        <v>14.20428413202475</v>
       </c>
       <c r="I30">
-        <v>3050.965338960455</v>
+        <v>2073.631511123093</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2069.57646950353</v>
+        <v>1406.616760616377</v>
       </c>
       <c r="C31">
-        <v>0.5502605144587754</v>
+        <v>0.3739922992692216</v>
       </c>
       <c r="D31">
-        <v>230.2232439455405</v>
+        <v>156.4744663409102</v>
       </c>
       <c r="E31">
-        <v>24.02133449417873</v>
+        <v>16.32643790156239</v>
       </c>
       <c r="F31">
-        <v>312.49633558386</v>
+        <v>212.3925304238234</v>
       </c>
       <c r="G31">
-        <v>92.10047859353473</v>
+        <v>62.59738587071078</v>
       </c>
       <c r="H31">
-        <v>10.44948881204115</v>
+        <v>7.102142066012373</v>
       </c>
       <c r="I31">
-        <v>2739.417611447144</v>
+        <v>1861.883715518665</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2305.405279909664</v>
+        <v>1566.901129056779</v>
       </c>
       <c r="C32">
-        <v>0.4891204572966892</v>
+        <v>0.3324375993504192</v>
       </c>
       <c r="D32">
-        <v>347.2219416883564</v>
+        <v>235.9942771043239</v>
       </c>
       <c r="E32">
-        <v>24.02133449417873</v>
+        <v>16.32643790156239</v>
       </c>
       <c r="F32">
-        <v>358.6605669769303</v>
+        <v>243.7686996909792</v>
       </c>
       <c r="G32">
-        <v>86.51863140604783</v>
+        <v>58.80360490884951</v>
       </c>
       <c r="H32">
-        <v>24.38214056142935</v>
+        <v>16.57166482069553</v>
       </c>
       <c r="I32">
-        <v>3146.699015493903</v>
+        <v>2138.69825108254</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>2316.839404050567</v>
+        <v>1574.672492375101</v>
       </c>
       <c r="C33">
-        <v>0.5095004763507178</v>
+        <v>0.34628916599002</v>
       </c>
       <c r="D33">
-        <v>294.3838201270847</v>
+        <v>200.0821045014918</v>
       </c>
       <c r="E33">
-        <v>34.69748315825817</v>
+        <v>23.582632524479</v>
       </c>
       <c r="F33">
-        <v>332.0273565578513</v>
+        <v>225.6670635753123</v>
       </c>
       <c r="G33">
-        <v>108.8460201559956</v>
+        <v>73.97872875629457</v>
       </c>
       <c r="H33">
-        <v>22.64055909275583</v>
+        <v>15.38797447636014</v>
       </c>
       <c r="I33">
-        <v>3109.944143618863</v>
+        <v>2113.717285375029</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2765.62877658103</v>
+        <v>1879.69850261926</v>
       </c>
       <c r="C34">
-        <v>0.4381704096616175</v>
+        <v>0.2978086827514173</v>
       </c>
       <c r="D34">
-        <v>256.6423047261765</v>
+        <v>174.4305526423263</v>
       </c>
       <c r="E34">
-        <v>70.72948489952627</v>
+        <v>48.07228937682259</v>
       </c>
       <c r="F34">
-        <v>276.9853883584215</v>
+        <v>188.2570156029344</v>
       </c>
       <c r="G34">
-        <v>61.40031906235647</v>
+        <v>41.73159058047387</v>
       </c>
       <c r="H34">
-        <v>17.41581468673525</v>
+        <v>11.83690344335395</v>
       </c>
       <c r="I34">
-        <v>3449.240258723908</v>
+        <v>2344.324662947922</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2887.116345578129</v>
+        <v>1962.269237876437</v>
       </c>
       <c r="C35">
-        <v>0.3362703143914738</v>
+        <v>0.2285508495534132</v>
       </c>
       <c r="D35">
-        <v>211.3524862450865</v>
+        <v>143.6486904113276</v>
       </c>
       <c r="E35">
-        <v>78.73659639758584</v>
+        <v>53.51443534401003</v>
       </c>
       <c r="F35">
-        <v>214.8412307139039</v>
+        <v>146.0198646663785</v>
       </c>
       <c r="G35">
-        <v>39.07293031240867</v>
+        <v>26.55646673302881</v>
       </c>
       <c r="H35">
-        <v>13.9326517493882</v>
+        <v>9.469522754683162</v>
       </c>
       <c r="I35">
-        <v>3445.388511310893</v>
+        <v>2341.706768635418</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2172.483586771662</v>
+        <v>1476.559030481279</v>
       </c>
       <c r="C36">
-        <v>0.2751302572293877</v>
+        <v>0.1869961496346108</v>
       </c>
       <c r="D36">
-        <v>215.1266377851773</v>
+        <v>146.2138455972441</v>
       </c>
       <c r="E36">
-        <v>82.74015214661563</v>
+        <v>56.23550832760378</v>
       </c>
       <c r="F36">
-        <v>133.1660520953949</v>
+        <v>90.50818057833384</v>
       </c>
       <c r="G36">
-        <v>36.28200671866522</v>
+        <v>24.65957625209819</v>
       </c>
       <c r="H36">
-        <v>8.707907343367626</v>
+        <v>5.918451721676975</v>
       </c>
       <c r="I36">
-        <v>2648.781473118111</v>
+        <v>1800.281589107871</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>2016.693645351851</v>
+        <v>1370.674205269135</v>
       </c>
       <c r="C37">
-        <v>0.2547502381753589</v>
+        <v>0.17314458299501</v>
       </c>
       <c r="D37">
-        <v>124.5470008229974</v>
+        <v>84.65012113524658</v>
       </c>
       <c r="E37">
-        <v>81.4056335636057</v>
+        <v>55.32848399973921</v>
       </c>
       <c r="F37">
-        <v>115.4105784826756</v>
+        <v>78.44042316788931</v>
       </c>
       <c r="G37">
-        <v>47.44570109363914</v>
+        <v>32.24713817582071</v>
       </c>
       <c r="H37">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I37">
-        <v>2389.240472490291</v>
+        <v>1623.880897019497</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1603.635910761714</v>
+        <v>1089.933705394734</v>
       </c>
       <c r="C38">
-        <v>0.1528501429052154</v>
+        <v>0.103886749797006</v>
       </c>
       <c r="D38">
-        <v>101.9020915824524</v>
+        <v>69.25919001974722</v>
       </c>
       <c r="E38">
-        <v>56.04978048641706</v>
+        <v>38.09502177031224</v>
       </c>
       <c r="F38">
-        <v>74.57298917342115</v>
+        <v>50.68458112386693</v>
       </c>
       <c r="G38">
-        <v>47.44570109363914</v>
+        <v>32.24713817582071</v>
       </c>
       <c r="H38">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I38">
-        <v>1887.242486177896</v>
+        <v>1282.690903922949</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>1147.700210643187</v>
+        <v>780.050593076623</v>
       </c>
       <c r="C39">
-        <v>0.2139902000673015</v>
+        <v>0.1454414497158084</v>
       </c>
       <c r="D39">
-        <v>49.06397002118079</v>
+        <v>33.34701741691534</v>
       </c>
       <c r="E39">
-        <v>24.02133449417873</v>
+        <v>16.32643790156239</v>
       </c>
       <c r="F39">
-        <v>53.26642083815799</v>
+        <v>36.20327223133352</v>
       </c>
       <c r="G39">
-        <v>27.90923593743479</v>
+        <v>18.96890480930629</v>
       </c>
       <c r="H39">
-        <v>5.224744406020576</v>
+        <v>3.551071033006187</v>
       </c>
       <c r="I39">
-        <v>1307.399906540227</v>
+        <v>888.5927379184626</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>676.0425898309179</v>
+        <v>459.4818561958191</v>
       </c>
       <c r="C40">
-        <v>0.2445602286483446</v>
+        <v>0.1662187996752096</v>
       </c>
       <c r="D40">
-        <v>52.83812156127163</v>
+        <v>35.91217260283189</v>
       </c>
       <c r="E40">
-        <v>10.67614866407944</v>
+        <v>7.256194622916617</v>
       </c>
       <c r="F40">
-        <v>42.61313667052636</v>
+        <v>28.96261778506682</v>
       </c>
       <c r="G40">
-        <v>39.07293031240867</v>
+        <v>26.55646673302881</v>
       </c>
       <c r="I40">
-        <v>821.4874872678522</v>
+        <v>558.3355267393385</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>521.6819139287213</v>
+        <v>354.5684513984648</v>
       </c>
       <c r="C41">
-        <v>0.2547502381753589</v>
+        <v>0.17314458299501</v>
       </c>
       <c r="D41">
-        <v>18.87075770045415</v>
+        <v>12.82577592958282</v>
       </c>
       <c r="E41">
-        <v>5.338074332039719</v>
+        <v>3.628097311458308</v>
       </c>
       <c r="F41">
-        <v>33.73539986416673</v>
+        <v>22.92873907984456</v>
       </c>
       <c r="G41">
-        <v>47.44570109363914</v>
+        <v>32.24713817582071</v>
       </c>
       <c r="I41">
-        <v>627.3265971571965</v>
+        <v>426.3713464781662</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>338.7359276742656</v>
+        <v>230.2266383053046</v>
       </c>
       <c r="C42">
-        <v>0.285320266756402</v>
+        <v>0.1939219329544112</v>
       </c>
       <c r="D42">
-        <v>30.19321232072665</v>
+        <v>20.5212414873325</v>
       </c>
       <c r="E42">
-        <v>6.672592915049647</v>
+        <v>4.535121639322884</v>
       </c>
       <c r="F42">
-        <v>35.51094722543864</v>
+        <v>24.13551482088902</v>
       </c>
       <c r="G42">
-        <v>41.86385390615216</v>
+        <v>28.45335721395945</v>
       </c>
       <c r="I42">
-        <v>453.2618543083891</v>
+        <v>308.0657953997629</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>237.2580759237472</v>
+        <v>161.2557888551924</v>
       </c>
       <c r="C43">
-        <v>0.3158902953374452</v>
+        <v>0.2146992829138124</v>
       </c>
       <c r="D43">
-        <v>56.61227310136248</v>
+        <v>38.47732778874844</v>
       </c>
       <c r="E43">
-        <v>2.66903716601986</v>
+        <v>1.814048655729154</v>
       </c>
       <c r="F43">
-        <v>28.40875778035093</v>
+        <v>19.30841185671122</v>
       </c>
       <c r="G43">
-        <v>27.90923593743479</v>
+        <v>18.96890480930629</v>
       </c>
       <c r="H43">
-        <v>1.741581468673525</v>
+        <v>1.183690344335395</v>
       </c>
       <c r="I43">
-        <v>354.9148516729263</v>
+        <v>241.2228715929367</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>262.9848552407801</v>
+        <v>178.7413563214181</v>
       </c>
       <c r="C44">
-        <v>0.3158902953374452</v>
+        <v>0.2146992829138124</v>
       </c>
       <c r="D44">
-        <v>37.7415154009083</v>
+        <v>25.65155185916563</v>
       </c>
       <c r="E44">
-        <v>5.338074332039719</v>
+        <v>3.628097311458308</v>
       </c>
       <c r="F44">
-        <v>39.0620419479825</v>
+        <v>26.54906630297792</v>
       </c>
       <c r="G44">
-        <v>16.74554156246086</v>
+        <v>11.38134288558378</v>
       </c>
       <c r="I44">
-        <v>362.1879187795089</v>
+        <v>246.1661139635175</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>354.4578483680078</v>
+        <v>240.912262867998</v>
       </c>
       <c r="C45">
-        <v>0.1019000952701436</v>
+        <v>0.06925783319800402</v>
       </c>
       <c r="D45">
-        <v>71.70887926172573</v>
+        <v>48.73794853241469</v>
       </c>
       <c r="E45">
-        <v>8.007111498059578</v>
+        <v>5.442145967187463</v>
       </c>
       <c r="F45">
-        <v>65.69525236706146</v>
+        <v>44.65070241864468</v>
       </c>
       <c r="G45">
-        <v>36.28200671866522</v>
+        <v>24.65957625209819</v>
       </c>
       <c r="H45">
-        <v>6.9663258746941</v>
+        <v>4.734761377341581</v>
       </c>
       <c r="I45">
-        <v>543.2193241834841</v>
+        <v>369.2066552488827</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>823.2569381450506</v>
+        <v>559.5381589192216</v>
       </c>
       <c r="C46">
-        <v>0.08152007621611487</v>
+        <v>0.0554062665584032</v>
       </c>
       <c r="D46">
-        <v>113.224546202725</v>
+        <v>76.95465557749688</v>
       </c>
       <c r="E46">
-        <v>40.03555749029789</v>
+        <v>27.21072983593731</v>
       </c>
       <c r="F46">
-        <v>202.4123991850003</v>
+        <v>137.5724344790674</v>
       </c>
       <c r="G46">
-        <v>122.8006381247129</v>
+        <v>83.46318116094774</v>
       </c>
       <c r="H46">
-        <v>3.48316293734705</v>
+        <v>2.36738068867079</v>
       </c>
       <c r="I46">
-        <v>1305.29476216135</v>
+        <v>887.1619469279001</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1565.045741786163</v>
+        <v>1063.705354195396</v>
       </c>
       <c r="C47">
-        <v>0.1732301619592441</v>
+        <v>0.1177383164366068</v>
       </c>
       <c r="D47">
-        <v>192.4817285446323</v>
+        <v>130.8229144817448</v>
       </c>
       <c r="E47">
-        <v>116.1031167218639</v>
+        <v>78.91111652421823</v>
       </c>
       <c r="F47">
-        <v>298.2919566936846</v>
+        <v>202.7383244954677</v>
       </c>
       <c r="G47">
-        <v>173.0372628120957</v>
+        <v>117.607209817699</v>
       </c>
       <c r="H47">
-        <v>19.15739615540878</v>
+        <v>13.02059378768935</v>
       </c>
       <c r="I47">
-        <v>2364.290432875808</v>
+        <v>1606.923251618651</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2251.093190240373</v>
+        <v>1529.987153294746</v>
       </c>
       <c r="C48">
-        <v>0.2649402477023733</v>
+        <v>0.1800703663148105</v>
       </c>
       <c r="D48">
-        <v>203.8041831649048</v>
+        <v>138.5183800394944</v>
       </c>
       <c r="E48">
-        <v>126.7792653859433</v>
+        <v>86.16731114713484</v>
       </c>
       <c r="F48">
-        <v>314.2718829451322</v>
+        <v>213.5993061648678</v>
       </c>
       <c r="G48">
-        <v>220.4829639057347</v>
+        <v>149.8543479935198</v>
       </c>
       <c r="H48">
-        <v>29.60688496744992</v>
+        <v>20.12273585370172</v>
       </c>
       <c r="I48">
-        <v>3146.30331085724</v>
+        <v>2138.429304859779</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>2448.331831670958</v>
+        <v>1664.04317053581</v>
       </c>
       <c r="C49">
-        <v>0.4585504287156461</v>
+        <v>0.3116602493910181</v>
       </c>
       <c r="D49">
-        <v>256.6423047261765</v>
+        <v>174.4305526423263</v>
       </c>
       <c r="E49">
-        <v>60.05333623544685</v>
+        <v>40.81609475390596</v>
       </c>
       <c r="F49">
-        <v>321.3740723902197</v>
+        <v>218.4264091290457</v>
       </c>
       <c r="G49">
-        <v>150.7098740621478</v>
+        <v>102.432085970254</v>
       </c>
       <c r="H49">
-        <v>12.19107028071468</v>
+        <v>8.285832410347766</v>
       </c>
       <c r="I49">
-        <v>3249.761039794379</v>
+        <v>2208.74580569108</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_NOx.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1466.844826333376</v>
+        <v>506.7258427171542</v>
       </c>
       <c r="C2">
-        <v>0.3532149493098204</v>
+        <v>0.5196904858777323</v>
       </c>
       <c r="D2">
-        <v>179.5608630141593</v>
+        <v>262.6373016257821</v>
       </c>
       <c r="E2">
-        <v>30.83882714739562</v>
+        <v>45.3736318223376</v>
       </c>
       <c r="F2">
-        <v>213.5993061648678</v>
+        <v>311.4033385978068</v>
       </c>
       <c r="G2">
-        <v>100.5351954893234</v>
+        <v>146.925211678731</v>
       </c>
       <c r="H2">
-        <v>10.65321309901856</v>
+        <v>15.67423321806173</v>
       </c>
       <c r="I2">
-        <v>2002.385446197451</v>
+        <v>1289.259250145751</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1382.331250246619</v>
+        <v>477.530380255967</v>
       </c>
       <c r="C3">
-        <v>0.4501759157870261</v>
+        <v>0.6623506192559333</v>
       </c>
       <c r="D3">
-        <v>220.6033459888245</v>
+        <v>322.6686848545323</v>
       </c>
       <c r="E3">
-        <v>11.7913162622395</v>
+        <v>17.34874157912908</v>
       </c>
       <c r="F3">
-        <v>235.3212695036679</v>
+        <v>343.0714747263972</v>
       </c>
       <c r="G3">
-        <v>89.15385260373954</v>
+        <v>130.2921688471766</v>
       </c>
       <c r="H3">
-        <v>27.22487791971409</v>
+        <v>40.05637377949108</v>
       </c>
       <c r="I3">
-        <v>1966.876088440592</v>
+        <v>1331.630174661949</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1291.98915167112</v>
+        <v>446.321437625043</v>
       </c>
       <c r="C4">
-        <v>0.3532149493098204</v>
+        <v>0.5196904858777323</v>
       </c>
       <c r="D4">
-        <v>110.3016729944122</v>
+        <v>161.3343424272662</v>
       </c>
       <c r="E4">
-        <v>10.88429193437493</v>
+        <v>16.01422299611916</v>
       </c>
       <c r="F4">
-        <v>187.0502398618899</v>
+        <v>272.6978388850849</v>
       </c>
       <c r="G4">
-        <v>85.36007164187833</v>
+        <v>124.7478212366584</v>
       </c>
       <c r="H4">
-        <v>23.6738068867079</v>
+        <v>34.83162937347051</v>
       </c>
       <c r="I4">
-        <v>1709.612449939693</v>
+        <v>1056.46698302952</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1498.901700021456</v>
+        <v>517.7999836507081</v>
       </c>
       <c r="C5">
-        <v>0.380918082589022</v>
+        <v>0.5604505239857898</v>
       </c>
       <c r="D5">
-        <v>148.7790007831607</v>
+        <v>217.6137642042196</v>
       </c>
       <c r="E5">
-        <v>19.04751088515612</v>
+        <v>28.02489024320853</v>
       </c>
       <c r="F5">
-        <v>225.6670635753123</v>
+        <v>328.9967475581347</v>
       </c>
       <c r="G5">
-        <v>70.18494779443331</v>
+        <v>102.5704307945858</v>
       </c>
       <c r="H5">
-        <v>20.12273585370172</v>
+        <v>29.60688496744992</v>
       </c>
       <c r="I5">
-        <v>1983.08387699581</v>
+        <v>1225.173151942292</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1393.988295224102</v>
+        <v>481.5573405954414</v>
       </c>
       <c r="C6">
-        <v>0.3947696492286227</v>
+        <v>0.5808305430398184</v>
       </c>
       <c r="D6">
-        <v>182.126018200076</v>
+        <v>266.3892630775791</v>
       </c>
       <c r="E6">
-        <v>16.32643790156239</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F6">
-        <v>241.3551482088902</v>
+        <v>351.868179206561</v>
       </c>
       <c r="G6">
-        <v>72.08183827536392</v>
+        <v>105.3426045998448</v>
       </c>
       <c r="H6">
-        <v>17.75535516503093</v>
+        <v>26.12372203010288</v>
       </c>
       <c r="I6">
-        <v>1924.027862624255</v>
+        <v>1255.883274546748</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1495.016018362296</v>
+        <v>516.4576635375497</v>
       </c>
       <c r="C7">
-        <v>0.4086212158682237</v>
+        <v>0.6012105620938472</v>
       </c>
       <c r="D7">
-        <v>210.3427252451581</v>
+        <v>307.6608390473448</v>
       </c>
       <c r="E7">
-        <v>16.32643790156239</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F7">
-        <v>253.4229056193346</v>
+        <v>369.4615881668892</v>
       </c>
       <c r="G7">
-        <v>68.28805731350269</v>
+        <v>99.79825698932665</v>
       </c>
       <c r="H7">
-        <v>15.38797447636014</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I7">
-        <v>2059.192740134082</v>
+        <v>1340.641451890139</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1528.044312465165</v>
+        <v>527.8673844993929</v>
       </c>
       <c r="C8">
-        <v>0.3739922992692216</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D8">
-        <v>205.2124148733251</v>
+        <v>300.1569161437511</v>
       </c>
       <c r="E8">
-        <v>18.14048655729153</v>
+        <v>26.69037166019859</v>
       </c>
       <c r="F8">
-        <v>236.5280452447124</v>
+        <v>344.8308156224298</v>
       </c>
       <c r="G8">
-        <v>58.80360490884951</v>
+        <v>85.93738796303133</v>
       </c>
       <c r="H8">
-        <v>8.285832410347766</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I8">
-        <v>2055.388688758961</v>
+        <v>1298.224206683977</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1708.728509616165</v>
+        <v>590.2852697612412</v>
       </c>
       <c r="C9">
-        <v>0.34628916599002</v>
+        <v>0.5095004763507178</v>
       </c>
       <c r="D9">
-        <v>179.5608630141593</v>
+        <v>262.6373016257821</v>
       </c>
       <c r="E9">
-        <v>29.02477849166647</v>
+        <v>42.70459465631775</v>
       </c>
       <c r="F9">
-        <v>209.9789789417345</v>
+        <v>306.1253159097082</v>
       </c>
       <c r="G9">
-        <v>62.59738587071078</v>
+        <v>91.48173557354953</v>
       </c>
       <c r="H9">
-        <v>13.02059378768935</v>
+        <v>19.15739615540878</v>
       </c>
       <c r="I9">
-        <v>2203.257398888115</v>
+        <v>1312.901114158358</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1855.412992249501</v>
+        <v>640.9578540329567</v>
       </c>
       <c r="C10">
-        <v>0.4224727825078245</v>
+        <v>0.6215905811478759</v>
       </c>
       <c r="D10">
-        <v>164.16993189866</v>
+        <v>240.1255329150009</v>
       </c>
       <c r="E10">
-        <v>54.42145967187463</v>
+        <v>80.07111498059578</v>
       </c>
       <c r="F10">
-        <v>201.5315487544232</v>
+        <v>293.8099296374787</v>
       </c>
       <c r="G10">
-        <v>47.42226202326577</v>
+        <v>69.30434513147686</v>
       </c>
       <c r="H10">
-        <v>7.102142066012373</v>
+        <v>10.44948881204115</v>
       </c>
       <c r="I10">
-        <v>2330.482809446245</v>
+        <v>1335.339856090698</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1971.983442024339</v>
+        <v>681.2274574276972</v>
       </c>
       <c r="C11">
-        <v>0.2631797661524152</v>
+        <v>0.3872203620265456</v>
       </c>
       <c r="D11">
-        <v>141.083535225411</v>
+        <v>206.3578798488289</v>
       </c>
       <c r="E11">
-        <v>58.04955698333293</v>
+        <v>85.4091893126355</v>
       </c>
       <c r="F11">
-        <v>112.2301439171339</v>
+        <v>163.6187033310509</v>
       </c>
       <c r="G11">
-        <v>9.484452404653146</v>
+        <v>13.86086902629538</v>
       </c>
       <c r="H11">
-        <v>8.285832410347766</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I11">
-        <v>2301.38014273137</v>
+        <v>1163.052389589249</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1436.730793474876</v>
+        <v>496.3228618401794</v>
       </c>
       <c r="C12">
-        <v>0.2216250662336128</v>
+        <v>0.3260803048644595</v>
       </c>
       <c r="D12">
-        <v>143.6486904113276</v>
+        <v>210.1098413006258</v>
       </c>
       <c r="E12">
-        <v>35.3739487867185</v>
+        <v>52.04622473738726</v>
       </c>
       <c r="F12">
-        <v>100.1623865066894</v>
+        <v>146.0252943707229</v>
       </c>
       <c r="G12">
-        <v>20.86579529023694</v>
+        <v>30.49391185784982</v>
       </c>
       <c r="H12">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I12">
-        <v>1739.370620224753</v>
+        <v>938.8073773489766</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1253.132335079506</v>
+        <v>432.8982364934631</v>
       </c>
       <c r="C13">
-        <v>0.1523672330356088</v>
+        <v>0.2241802095943159</v>
       </c>
       <c r="D13">
-        <v>84.65012113524658</v>
+        <v>123.8147279092973</v>
       </c>
       <c r="E13">
-        <v>47.16526504895799</v>
+        <v>69.39496631651633</v>
       </c>
       <c r="F13">
-        <v>62.75233853431146</v>
+        <v>91.48572659370593</v>
       </c>
       <c r="G13">
-        <v>34.14402865675135</v>
+        <v>49.89912849466332</v>
       </c>
       <c r="H13">
-        <v>5.918451721676975</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I13">
-        <v>1487.914907409486</v>
+        <v>776.424873360608</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>992.7916639157016</v>
+        <v>342.9627889118752</v>
       </c>
       <c r="C14">
-        <v>0.1315898830762076</v>
+        <v>0.1936101810132728</v>
       </c>
       <c r="D14">
-        <v>87.21527632116313</v>
+        <v>127.5666893610943</v>
       </c>
       <c r="E14">
-        <v>29.93180281953104</v>
+        <v>44.03911323932768</v>
       </c>
       <c r="F14">
-        <v>42.23715093655577</v>
+        <v>61.5769313611482</v>
       </c>
       <c r="G14">
-        <v>26.55646673302881</v>
+        <v>38.81043327362704</v>
       </c>
       <c r="H14">
-        <v>5.918451721676975</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I14">
-        <v>1184.782402330733</v>
+        <v>623.8574736714534</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>701.3655394786075</v>
+        <v>242.2887804250235</v>
       </c>
       <c r="C15">
-        <v>0.1869961496346108</v>
+        <v>0.2751302572293877</v>
       </c>
       <c r="D15">
-        <v>56.43341409016438</v>
+        <v>82.54315193953157</v>
       </c>
       <c r="E15">
-        <v>17.23346222942697</v>
+        <v>25.35585307718867</v>
       </c>
       <c r="F15">
-        <v>36.20327223133352</v>
+        <v>52.78022688098419</v>
       </c>
       <c r="G15">
-        <v>22.76268577116756</v>
+        <v>33.26608566310889</v>
       </c>
       <c r="I15">
-        <v>834.1853699503346</v>
+        <v>436.5092282430662</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>431.3106641668996</v>
+        <v>148.9975325605407</v>
       </c>
       <c r="C16">
-        <v>0.1523672330356088</v>
+        <v>0.2241802095943159</v>
       </c>
       <c r="D16">
-        <v>38.47732778874844</v>
+        <v>56.27942177695335</v>
       </c>
       <c r="E16">
-        <v>9.070243278645767</v>
+        <v>13.34518583009929</v>
       </c>
       <c r="F16">
-        <v>27.75584204402238</v>
+        <v>40.46484060875453</v>
       </c>
       <c r="G16">
-        <v>20.86579529023694</v>
+        <v>30.49391185784982</v>
       </c>
       <c r="I16">
-        <v>527.6322398015888</v>
+        <v>289.805072843792</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>335.1400431026589</v>
+        <v>115.7751097598796</v>
       </c>
       <c r="C17">
-        <v>0.2146992829138124</v>
+        <v>0.3158902953374452</v>
       </c>
       <c r="D17">
-        <v>12.82577592958282</v>
+        <v>18.75980725898444</v>
       </c>
       <c r="E17">
-        <v>1.814048655729154</v>
+        <v>2.66903716601986</v>
       </c>
       <c r="F17">
-        <v>15.68808463357787</v>
+        <v>22.87143164842648</v>
       </c>
       <c r="G17">
-        <v>24.65957625209819</v>
+        <v>36.03825946836798</v>
       </c>
       <c r="I17">
-        <v>390.3422278565607</v>
+        <v>196.4295355970158</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>218.5695933278209</v>
+        <v>75.50550636513891</v>
       </c>
       <c r="C18">
-        <v>0.1939219329544112</v>
+        <v>0.285320266756402</v>
       </c>
       <c r="D18">
-        <v>23.08639667324907</v>
+        <v>33.767653066172</v>
       </c>
       <c r="E18">
-        <v>3.628097311458308</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F18">
-        <v>28.96261778506682</v>
+        <v>42.22418150478735</v>
       </c>
       <c r="G18">
-        <v>15.17512384744504</v>
+        <v>22.1773904420726</v>
       </c>
       <c r="I18">
-        <v>289.6157508779945</v>
+        <v>179.298125976967</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>130.1703355819023</v>
+        <v>44.96772379079379</v>
       </c>
       <c r="C19">
-        <v>0.17314458299501</v>
+        <v>0.2547502381753589</v>
       </c>
       <c r="D19">
-        <v>30.78186223099875</v>
+        <v>45.02353742156267</v>
       </c>
       <c r="E19">
-        <v>0.9070243278645771</v>
+        <v>1.33451858300993</v>
       </c>
       <c r="F19">
-        <v>13.27453315148896</v>
+        <v>19.35274985636087</v>
       </c>
       <c r="G19">
-        <v>32.24713817582071</v>
+        <v>47.12695468940428</v>
       </c>
       <c r="H19">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I19">
-        <v>208.7377283954057</v>
+        <v>159.8018160479804</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>157.370107196031</v>
+        <v>54.36396458289999</v>
       </c>
       <c r="C20">
-        <v>0.1315898830762076</v>
+        <v>0.1936101810132728</v>
       </c>
       <c r="D20">
-        <v>38.47732778874844</v>
+        <v>56.27942177695335</v>
       </c>
       <c r="E20">
-        <v>2.721072983593731</v>
+        <v>4.003555749029789</v>
       </c>
       <c r="F20">
-        <v>26.54906630297792</v>
+        <v>38.70549971272174</v>
       </c>
       <c r="G20">
-        <v>26.55646673302881</v>
+        <v>38.81043327362704</v>
       </c>
       <c r="H20">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I20">
-        <v>252.9893212317915</v>
+        <v>194.0980667449187</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>270.0548753117076</v>
+        <v>93.29124786448266</v>
       </c>
       <c r="C21">
-        <v>0.06233204987820361</v>
+        <v>0.09171008574312924</v>
       </c>
       <c r="D21">
-        <v>53.8682589042478</v>
+        <v>78.79119048773465</v>
       </c>
       <c r="E21">
-        <v>6.349170295052041</v>
+        <v>9.341630081069507</v>
       </c>
       <c r="F21">
-        <v>47.06425390073359</v>
+        <v>68.61429494527938</v>
       </c>
       <c r="G21">
-        <v>43.62848106140449</v>
+        <v>63.75999752095874</v>
       </c>
       <c r="I21">
-        <v>421.0273715230237</v>
+        <v>313.890070985268</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>543.0240118677865</v>
+        <v>187.5892358138337</v>
       </c>
       <c r="C22">
-        <v>0.0554062665584032</v>
+        <v>0.08152007621611487</v>
       </c>
       <c r="D22">
-        <v>79.51981076341345</v>
+        <v>116.3108050057036</v>
       </c>
       <c r="E22">
-        <v>26.30370550807275</v>
+        <v>38.70103890728795</v>
       </c>
       <c r="F22">
-        <v>132.7453315148896</v>
+        <v>193.5274985636087</v>
       </c>
       <c r="G22">
-        <v>79.66940019908645</v>
+        <v>116.4312998208812</v>
       </c>
       <c r="H22">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I22">
-        <v>863.6850468084781</v>
+        <v>656.1245611248783</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1031.648480507315</v>
+        <v>356.3859900434554</v>
       </c>
       <c r="C23">
-        <v>0.1246640997564072</v>
+        <v>0.1834201714862585</v>
       </c>
       <c r="D23">
-        <v>135.9532248535779</v>
+        <v>198.8539569452351</v>
       </c>
       <c r="E23">
-        <v>76.19004354062447</v>
+        <v>112.0995609728341</v>
       </c>
       <c r="F23">
-        <v>195.4976700492011</v>
+        <v>285.0132251573146</v>
       </c>
       <c r="G23">
-        <v>111.9165383749072</v>
+        <v>163.5582545102855</v>
       </c>
       <c r="H23">
-        <v>14.20428413202475</v>
+        <v>20.8989776240823</v>
       </c>
       <c r="I23">
-        <v>1565.534905557407</v>
+        <v>1136.993385424693</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1484.330393799602</v>
+        <v>512.7662832263652</v>
       </c>
       <c r="C24">
-        <v>0.1869961496346108</v>
+        <v>0.2751302572293877</v>
       </c>
       <c r="D24">
-        <v>143.6486904113276</v>
+        <v>210.1098413006258</v>
       </c>
       <c r="E24">
-        <v>82.53921383567653</v>
+        <v>121.4411910539036</v>
       </c>
       <c r="F24">
-        <v>206.3586517186011</v>
+        <v>300.8472932216098</v>
       </c>
       <c r="G24">
-        <v>142.2667860697972</v>
+        <v>207.9130353944307</v>
       </c>
       <c r="H24">
-        <v>21.30642619803712</v>
+        <v>31.34846643612345</v>
       </c>
       <c r="I24">
-        <v>2080.637158182676</v>
+        <v>1384.701240890288</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1613.529308966713</v>
+        <v>557.3984269888697</v>
       </c>
       <c r="C25">
-        <v>0.3185860327108184</v>
+        <v>0.4687404382426605</v>
       </c>
       <c r="D25">
-        <v>179.5608630141593</v>
+        <v>262.6373016257821</v>
       </c>
       <c r="E25">
-        <v>39.00204609817681</v>
+        <v>57.38429906942696</v>
       </c>
       <c r="F25">
-        <v>209.9789789417345</v>
+        <v>306.1253159097082</v>
       </c>
       <c r="G25">
-        <v>96.74141452746213</v>
+        <v>141.3808640682128</v>
       </c>
       <c r="H25">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I25">
-        <v>2148.600720335639</v>
+        <v>1339.327599849631</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1512.501585828521</v>
+        <v>522.498104046761</v>
       </c>
       <c r="C26">
-        <v>0.3393633826702196</v>
+        <v>0.4993104668237037</v>
       </c>
       <c r="D26">
-        <v>174.4305526423263</v>
+        <v>255.1333787221885</v>
       </c>
       <c r="E26">
-        <v>31.7458514752602</v>
+        <v>46.70815040534751</v>
       </c>
       <c r="F26">
-        <v>222.046736352179</v>
+        <v>323.7187248700362</v>
       </c>
       <c r="G26">
-        <v>106.2258669321153</v>
+        <v>155.2417330945082</v>
       </c>
       <c r="H26">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I26">
-        <v>2056.759479367755</v>
+        <v>1317.732053355053</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1425.073748497393</v>
+        <v>492.2959015007056</v>
       </c>
       <c r="C27">
-        <v>0.4363243491474253</v>
+        <v>0.6419706002019046</v>
       </c>
       <c r="D27">
-        <v>212.9078804310747</v>
+        <v>311.4128004991418</v>
       </c>
       <c r="E27">
-        <v>12.69834059010408</v>
+        <v>18.68326016213901</v>
       </c>
       <c r="F27">
-        <v>243.7686996909792</v>
+        <v>355.3868609986268</v>
       </c>
       <c r="G27">
-        <v>92.9476335656009</v>
+        <v>135.8365164576946</v>
       </c>
       <c r="H27">
-        <v>24.8574972310433</v>
+        <v>36.57321084214403</v>
       </c>
       <c r="I27">
-        <v>2012.690124355343</v>
+        <v>1350.830521060654</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1444.502156793199</v>
+        <v>499.0075020664956</v>
       </c>
       <c r="C28">
-        <v>0.4016954325484233</v>
+        <v>0.5910205525668328</v>
       </c>
       <c r="D28">
-        <v>166.7350870845766</v>
+        <v>243.8774943667977</v>
       </c>
       <c r="E28">
-        <v>12.69834059010408</v>
+        <v>18.68326016213901</v>
       </c>
       <c r="F28">
-        <v>218.4264091290457</v>
+        <v>318.4407021819378</v>
       </c>
       <c r="G28">
-        <v>98.63830500839275</v>
+        <v>144.1530378734719</v>
       </c>
       <c r="H28">
-        <v>15.38797447636014</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I28">
-        <v>1956.789968514227</v>
+        <v>1247.393576296165</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1507.644483754569</v>
+        <v>520.8202039053136</v>
       </c>
       <c r="C29">
-        <v>0.4293985658276248</v>
+        <v>0.6317805906748903</v>
       </c>
       <c r="D29">
-        <v>141.083535225411</v>
+        <v>206.3578798488289</v>
       </c>
       <c r="E29">
-        <v>13.60536491796866</v>
+        <v>20.01777874514895</v>
       </c>
       <c r="F29">
-        <v>218.4264091290457</v>
+        <v>318.4407021819378</v>
       </c>
       <c r="G29">
-        <v>79.66940019908645</v>
+        <v>116.4312998208812</v>
       </c>
       <c r="H29">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I29">
-        <v>1970.328114546591</v>
+        <v>1196.632296842173</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1564.958288227198</v>
+        <v>540.6194255743944</v>
       </c>
       <c r="C30">
-        <v>0.3739922992692216</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D30">
-        <v>117.9971385521619</v>
+        <v>172.5902267826568</v>
       </c>
       <c r="E30">
-        <v>15.41941357369781</v>
+        <v>22.6868159111688</v>
       </c>
       <c r="F30">
-        <v>271.5245417350015</v>
+        <v>395.8517016073813</v>
       </c>
       <c r="G30">
-        <v>89.15385260373954</v>
+        <v>130.2921688471766</v>
       </c>
       <c r="H30">
-        <v>14.20428413202475</v>
+        <v>20.8989776240823</v>
       </c>
       <c r="I30">
-        <v>2073.631511123093</v>
+        <v>1283.489576861319</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1406.616760616377</v>
+        <v>485.9198809632051</v>
       </c>
       <c r="C31">
-        <v>0.3739922992692216</v>
+        <v>0.5502605144587754</v>
       </c>
       <c r="D31">
-        <v>156.4744663409102</v>
+        <v>228.8696485596101</v>
       </c>
       <c r="E31">
-        <v>16.32643790156239</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F31">
-        <v>212.3925304238234</v>
+        <v>309.6439977017739</v>
       </c>
       <c r="G31">
-        <v>62.59738587071078</v>
+        <v>91.48173557354953</v>
       </c>
       <c r="H31">
-        <v>7.102142066012373</v>
+        <v>10.44948881204115</v>
       </c>
       <c r="I31">
-        <v>1861.883715518665</v>
+        <v>1150.936346618817</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1566.901129056779</v>
+        <v>541.2905856309731</v>
       </c>
       <c r="C32">
-        <v>0.3324375993504192</v>
+        <v>0.4891204572966892</v>
       </c>
       <c r="D32">
-        <v>235.9942771043239</v>
+        <v>345.1804535653137</v>
       </c>
       <c r="E32">
-        <v>16.32643790156239</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F32">
-        <v>243.7686996909792</v>
+        <v>355.3868609986268</v>
       </c>
       <c r="G32">
-        <v>58.80360490884951</v>
+        <v>85.93738796303133</v>
       </c>
       <c r="H32">
-        <v>16.57166482069553</v>
+        <v>24.38214056142935</v>
       </c>
       <c r="I32">
-        <v>2138.69825108254</v>
+        <v>1376.68788367085</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1574.672492375101</v>
+        <v>543.9752258572892</v>
       </c>
       <c r="C33">
-        <v>0.34628916599002</v>
+        <v>0.5095004763507178</v>
       </c>
       <c r="D33">
-        <v>200.0821045014918</v>
+        <v>292.6529932401573</v>
       </c>
       <c r="E33">
-        <v>23.582632524479</v>
+        <v>34.69748315825817</v>
       </c>
       <c r="F33">
-        <v>225.6670635753123</v>
+        <v>328.9967475581347</v>
       </c>
       <c r="G33">
-        <v>73.97872875629457</v>
+        <v>108.1147784051039</v>
       </c>
       <c r="H33">
-        <v>15.38797447636014</v>
+        <v>22.64055909275583</v>
       </c>
       <c r="I33">
-        <v>2113.717285375029</v>
+        <v>1331.58728778805</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1879.69850261926</v>
+        <v>649.3473547401936</v>
       </c>
       <c r="C34">
-        <v>0.2978086827514173</v>
+        <v>0.4381704096616175</v>
       </c>
       <c r="D34">
-        <v>174.4305526423263</v>
+        <v>255.1333787221885</v>
       </c>
       <c r="E34">
-        <v>48.07228937682259</v>
+        <v>70.72948489952627</v>
       </c>
       <c r="F34">
-        <v>188.2570156029344</v>
+        <v>274.4571797811175</v>
       </c>
       <c r="G34">
-        <v>41.73159058047387</v>
+        <v>60.98782371569965</v>
       </c>
       <c r="H34">
-        <v>11.83690344335395</v>
+        <v>17.41581468673525</v>
       </c>
       <c r="I34">
-        <v>2344.324662947922</v>
+        <v>1328.509206955123</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1962.269237876437</v>
+        <v>677.871657144802</v>
       </c>
       <c r="C35">
-        <v>0.2285508495534132</v>
+        <v>0.3362703143914738</v>
       </c>
       <c r="D35">
-        <v>143.6486904113276</v>
+        <v>210.1098413006258</v>
       </c>
       <c r="E35">
-        <v>53.51443534401003</v>
+        <v>78.73659639758584</v>
       </c>
       <c r="F35">
-        <v>146.0198646663785</v>
+        <v>212.8802484199695</v>
       </c>
       <c r="G35">
-        <v>26.55646673302881</v>
+        <v>38.81043327362704</v>
       </c>
       <c r="H35">
-        <v>9.469522754683162</v>
+        <v>13.9326517493882</v>
       </c>
       <c r="I35">
-        <v>2341.706768635418</v>
+        <v>1232.67769860039</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1476.559030481279</v>
+        <v>510.0816430000493</v>
       </c>
       <c r="C36">
-        <v>0.1869961496346108</v>
+        <v>0.2751302572293877</v>
       </c>
       <c r="D36">
-        <v>146.2138455972441</v>
+        <v>213.8618027524227</v>
       </c>
       <c r="E36">
-        <v>56.23550832760378</v>
+        <v>82.74015214661563</v>
       </c>
       <c r="F36">
-        <v>90.50818057833384</v>
+        <v>131.9505672024604</v>
       </c>
       <c r="G36">
-        <v>24.65957625209819</v>
+        <v>36.03825946836798</v>
       </c>
       <c r="H36">
-        <v>5.918451721676975</v>
+        <v>8.707907343367626</v>
       </c>
       <c r="I36">
-        <v>1800.281589107871</v>
+        <v>983.655462170513</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1370.674205269135</v>
+        <v>473.5034199164929</v>
       </c>
       <c r="C37">
-        <v>0.17314458299501</v>
+        <v>0.2547502381753589</v>
       </c>
       <c r="D37">
-        <v>84.65012113524658</v>
+        <v>123.8147279092973</v>
       </c>
       <c r="E37">
-        <v>55.32848399973921</v>
+        <v>81.4056335636057</v>
       </c>
       <c r="F37">
-        <v>78.44042316788931</v>
+        <v>114.3571582421324</v>
       </c>
       <c r="G37">
-        <v>32.24713817582071</v>
+        <v>47.12695468940428</v>
       </c>
       <c r="H37">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I37">
-        <v>1623.880897019497</v>
+        <v>843.9458074964551</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1089.933705394734</v>
+        <v>376.5207917408256</v>
       </c>
       <c r="C38">
-        <v>0.103886749797006</v>
+        <v>0.1528501429052154</v>
       </c>
       <c r="D38">
-        <v>69.25919001974722</v>
+        <v>101.302959198516</v>
       </c>
       <c r="E38">
-        <v>38.09502177031224</v>
+        <v>56.04978048641706</v>
       </c>
       <c r="F38">
-        <v>50.68458112386693</v>
+        <v>73.89231763337786</v>
       </c>
       <c r="G38">
-        <v>32.24713817582071</v>
+        <v>47.12695468940428</v>
       </c>
       <c r="H38">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I38">
-        <v>1282.690903922949</v>
+        <v>658.5288168287931</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>780.050593076623</v>
+        <v>269.4707627164735</v>
       </c>
       <c r="C39">
-        <v>0.1454414497158084</v>
+        <v>0.2139902000673015</v>
       </c>
       <c r="D39">
-        <v>33.34701741691534</v>
+        <v>48.77549887335956</v>
       </c>
       <c r="E39">
-        <v>16.32643790156239</v>
+        <v>24.02133449417873</v>
       </c>
       <c r="F39">
-        <v>36.20327223133352</v>
+        <v>52.78022688098419</v>
       </c>
       <c r="G39">
-        <v>18.96890480930629</v>
+        <v>27.72173805259076</v>
       </c>
       <c r="H39">
-        <v>3.551071033006187</v>
+        <v>5.224744406020576</v>
       </c>
       <c r="I39">
-        <v>888.5927379184626</v>
+        <v>428.2082956236746</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>459.4818561958191</v>
+        <v>158.7293533809363</v>
       </c>
       <c r="C40">
-        <v>0.1662187996752096</v>
+        <v>0.2445602286483446</v>
       </c>
       <c r="D40">
-        <v>35.91217260283189</v>
+        <v>52.52746032515645</v>
       </c>
       <c r="E40">
-        <v>7.256194622916617</v>
+        <v>10.67614866407944</v>
       </c>
       <c r="F40">
-        <v>28.96261778506682</v>
+        <v>42.22418150478735</v>
       </c>
       <c r="G40">
-        <v>26.55646673302881</v>
+        <v>38.81043327362704</v>
       </c>
       <c r="I40">
-        <v>558.3355267393385</v>
+        <v>303.2121373772349</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>354.5684513984648</v>
+        <v>122.4867103256697</v>
       </c>
       <c r="C41">
-        <v>0.17314458299501</v>
+        <v>0.2547502381753589</v>
       </c>
       <c r="D41">
-        <v>12.82577592958282</v>
+        <v>18.75980725898444</v>
       </c>
       <c r="E41">
-        <v>3.628097311458308</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F41">
-        <v>22.92873907984456</v>
+        <v>33.42747702462331</v>
       </c>
       <c r="G41">
-        <v>32.24713817582071</v>
+        <v>47.12695468940428</v>
       </c>
       <c r="I41">
-        <v>426.3713464781662</v>
+        <v>227.3937738688969</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>230.2266383053046</v>
+        <v>79.53246670461299</v>
       </c>
       <c r="C42">
-        <v>0.1939219329544112</v>
+        <v>0.285320266756402</v>
       </c>
       <c r="D42">
-        <v>20.5212414873325</v>
+        <v>30.01569161437511</v>
       </c>
       <c r="E42">
-        <v>4.535121639322884</v>
+        <v>6.672592915049647</v>
       </c>
       <c r="F42">
-        <v>24.13551482088902</v>
+        <v>35.18681792065612</v>
       </c>
       <c r="G42">
-        <v>28.45335721395945</v>
+        <v>41.58260707888614</v>
       </c>
       <c r="I42">
-        <v>308.0657953997629</v>
+        <v>193.2754965003364</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>161.2557888551924</v>
+        <v>55.70628469605802</v>
       </c>
       <c r="C43">
-        <v>0.2146992829138124</v>
+        <v>0.3158902953374452</v>
       </c>
       <c r="D43">
-        <v>38.47732778874844</v>
+        <v>56.27942177695335</v>
       </c>
       <c r="E43">
-        <v>1.814048655729154</v>
+        <v>2.66903716601986</v>
       </c>
       <c r="F43">
-        <v>19.30841185671122</v>
+        <v>28.1494543365249</v>
       </c>
       <c r="G43">
-        <v>18.96890480930629</v>
+        <v>27.72173805259076</v>
       </c>
       <c r="H43">
-        <v>1.183690344335395</v>
+        <v>1.741581468673525</v>
       </c>
       <c r="I43">
-        <v>241.2228715929367</v>
+        <v>172.5834077921579</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>178.7413563214181</v>
+        <v>61.7467252052691</v>
       </c>
       <c r="C44">
-        <v>0.2146992829138124</v>
+        <v>0.3158902953374452</v>
       </c>
       <c r="D44">
-        <v>25.65155185916563</v>
+        <v>37.51961451796889</v>
       </c>
       <c r="E44">
-        <v>3.628097311458308</v>
+        <v>5.338074332039719</v>
       </c>
       <c r="F44">
-        <v>26.54906630297792</v>
+        <v>38.70549971272174</v>
       </c>
       <c r="G44">
-        <v>11.38134288558378</v>
+        <v>16.63304283155444</v>
       </c>
       <c r="I44">
-        <v>246.1661139635175</v>
+        <v>160.2588468948913</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>240.912262867998</v>
+        <v>83.22384701579752</v>
       </c>
       <c r="C45">
-        <v>0.06925783319800402</v>
+        <v>0.1019000952701436</v>
       </c>
       <c r="D45">
-        <v>48.73794853241469</v>
+        <v>71.28726758414088</v>
       </c>
       <c r="E45">
-        <v>5.442145967187463</v>
+        <v>8.007111498059578</v>
       </c>
       <c r="F45">
-        <v>44.65070241864468</v>
+        <v>65.0956131532138</v>
       </c>
       <c r="G45">
-        <v>24.65957625209819</v>
+        <v>36.03825946836798</v>
       </c>
       <c r="H45">
-        <v>4.734761377341581</v>
+        <v>6.9663258746941</v>
       </c>
       <c r="I45">
-        <v>369.2066552488827</v>
+        <v>270.720324689544</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>559.5381589192216</v>
+        <v>193.2940962947556</v>
       </c>
       <c r="C46">
-        <v>0.0554062665584032</v>
+        <v>0.08152007621611487</v>
       </c>
       <c r="D46">
-        <v>76.95465557749688</v>
+        <v>112.5588435539067</v>
       </c>
       <c r="E46">
-        <v>27.21072983593731</v>
+        <v>40.03555749029789</v>
       </c>
       <c r="F46">
-        <v>137.5724344790674</v>
+        <v>200.5648621477398</v>
       </c>
       <c r="G46">
-        <v>83.46318116094774</v>
+        <v>121.9756474313993</v>
       </c>
       <c r="H46">
-        <v>2.36738068867079</v>
+        <v>3.48316293734705</v>
       </c>
       <c r="I46">
-        <v>887.1619469279001</v>
+        <v>671.9936899316624</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1063.705354195396</v>
+        <v>367.4601309770093</v>
       </c>
       <c r="C47">
-        <v>0.1177383164366068</v>
+        <v>0.1732301619592441</v>
       </c>
       <c r="D47">
-        <v>130.8229144817448</v>
+        <v>191.3500340416414</v>
       </c>
       <c r="E47">
-        <v>78.91111652421823</v>
+        <v>116.1031167218639</v>
       </c>
       <c r="F47">
-        <v>202.7383244954677</v>
+        <v>295.5692705335114</v>
       </c>
       <c r="G47">
-        <v>117.607209817699</v>
+        <v>171.8747759260627</v>
       </c>
       <c r="H47">
-        <v>13.02059378768935</v>
+        <v>19.15739615540878</v>
       </c>
       <c r="I47">
-        <v>1606.923251618651</v>
+        <v>1161.687954517457</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1529.987153294746</v>
+        <v>528.5385445559717</v>
       </c>
       <c r="C48">
-        <v>0.1800703663148105</v>
+        <v>0.2649402477023733</v>
       </c>
       <c r="D48">
-        <v>138.5183800394944</v>
+        <v>202.605918397032</v>
       </c>
       <c r="E48">
-        <v>86.16731114713484</v>
+        <v>126.7792653859433</v>
       </c>
       <c r="F48">
-        <v>213.5993061648678</v>
+        <v>311.4033385978068</v>
       </c>
       <c r="G48">
-        <v>149.8543479935198</v>
+        <v>219.001730615467</v>
       </c>
       <c r="H48">
-        <v>20.12273585370172</v>
+        <v>29.60688496744992</v>
       </c>
       <c r="I48">
-        <v>2138.429304859779</v>
+        <v>1418.200622767373</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1664.04317053581</v>
+        <v>574.848588459924</v>
       </c>
       <c r="C49">
-        <v>0.3116602493910181</v>
+        <v>0.4585504287156461</v>
       </c>
       <c r="D49">
-        <v>174.4305526423263</v>
+        <v>255.1333787221885</v>
       </c>
       <c r="E49">
-        <v>40.81609475390596</v>
+        <v>60.05333623544685</v>
       </c>
       <c r="F49">
-        <v>218.4264091290457</v>
+        <v>318.4407021819378</v>
       </c>
       <c r="G49">
-        <v>102.432085970254</v>
+        <v>149.6973854839902</v>
       </c>
       <c r="H49">
-        <v>8.285832410347766</v>
+        <v>12.19107028071468</v>
       </c>
       <c r="I49">
-        <v>2208.74580569108</v>
+        <v>1370.823011792918</v>
       </c>
     </row>
   </sheetData>
